--- a/InputForCode_tests.xlsx
+++ b/InputForCode_tests.xlsx
@@ -620,16 +620,16 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>12.4</v>
+        <v>2.0</v>
       </c>
       <c r="B2" s="2">
-        <v>21.4</v>
+        <v>2.0</v>
       </c>
       <c r="C2" s="2">
-        <v>30.3</v>
+        <v>2.0</v>
       </c>
       <c r="D2" s="2">
-        <v>46.2</v>
+        <v>2.0</v>
       </c>
     </row>
   </sheetData>

--- a/InputForCode_tests.xlsx
+++ b/InputForCode_tests.xlsx
@@ -330,19 +330,19 @@
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <v>1.0</v>
+        <v>1000.0</v>
       </c>
       <c r="B2" s="1">
-        <v>1.0</v>
+        <v>1000.0</v>
       </c>
       <c r="C2" s="1">
-        <v>1.0</v>
+        <v>1000.0</v>
       </c>
       <c r="D2" s="1">
-        <v>1.0</v>
+        <v>1000.0</v>
       </c>
       <c r="E2" s="1">
-        <v>1.0</v>
+        <v>1000.0</v>
       </c>
     </row>
   </sheetData>

--- a/InputForCode_tests.xlsx
+++ b/InputForCode_tests.xlsx
@@ -15,6 +15,7 @@
     <sheet state="visible" name="RR birth by type" sheetId="10" r:id="rId12"/>
     <sheet state="visible" name="RR birth by time" sheetId="11" r:id="rId13"/>
     <sheet state="visible" name="OR stunting progression" sheetId="12" r:id="rId14"/>
+    <sheet state="visible" name="OR birth outcome stunting" sheetId="13" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="57">
   <si>
     <t>&lt;1 month</t>
   </si>
@@ -197,6 +198,18 @@
   </si>
   <si>
     <t>Outcome</t>
+  </si>
+  <si>
+    <t>Term AGA</t>
+  </si>
+  <si>
+    <t>Term SGA</t>
+  </si>
+  <si>
+    <t>Pre-term AGA</t>
+  </si>
+  <si>
+    <t>Pre-term SGA</t>
   </si>
 </sst>
 </file>
@@ -235,7 +248,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -247,6 +260,12 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -269,6 +288,10 @@
 </file>
 
 <file path=xl/drawings/worksheetdrawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
+<file path=xl/drawings/worksheetdrawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
@@ -637,6 +660,46 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="5">
+        <v>2.82</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1.94</v>
+      </c>
+      <c r="D2" s="5">
+        <v>4.98</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>

--- a/InputForCode_tests.xlsx
+++ b/InputForCode_tests.xlsx
@@ -5,16 +5,16 @@
   <sheets>
     <sheet state="visible" name="total mortality" sheetId="1" r:id="rId3"/>
     <sheet state="visible" name="mortality" sheetId="2" r:id="rId4"/>
-    <sheet state="visible" name="RRStunting" sheetId="3" r:id="rId5"/>
-    <sheet state="visible" name="RRWasting" sheetId="4" r:id="rId6"/>
-    <sheet state="visible" name="RRBreastfeeding" sheetId="5" r:id="rId7"/>
-    <sheet state="visible" name="distributions" sheetId="6" r:id="rId8"/>
-    <sheet state="visible" name="birth distribution" sheetId="7" r:id="rId9"/>
-    <sheet state="visible" name="time between births" sheetId="8" r:id="rId10"/>
-    <sheet state="visible" name="birth outcome distribution" sheetId="9" r:id="rId11"/>
-    <sheet state="visible" name="RR birth by type" sheetId="10" r:id="rId12"/>
-    <sheet state="visible" name="RR birth by time" sheetId="11" r:id="rId13"/>
-    <sheet state="visible" name="OR stunting progression" sheetId="12" r:id="rId14"/>
+    <sheet state="visible" name="distributions" sheetId="3" r:id="rId5"/>
+    <sheet state="visible" name="RRStunting" sheetId="4" r:id="rId6"/>
+    <sheet state="visible" name="RRWasting" sheetId="5" r:id="rId7"/>
+    <sheet state="visible" name="RRBreastfeeding" sheetId="6" r:id="rId8"/>
+    <sheet state="visible" name="OR stunting progression" sheetId="7" r:id="rId9"/>
+    <sheet state="visible" name="birth distribution" sheetId="8" r:id="rId10"/>
+    <sheet state="visible" name="time between births" sheetId="9" r:id="rId11"/>
+    <sheet state="visible" name="birth outcome distribution" sheetId="10" r:id="rId12"/>
+    <sheet state="visible" name="RR birth by type" sheetId="11" r:id="rId13"/>
+    <sheet state="visible" name="RR birth by time" sheetId="12" r:id="rId14"/>
     <sheet state="visible" name="OR birth outcome stunting" sheetId="13" r:id="rId15"/>
   </sheets>
   <definedNames/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="54">
   <si>
     <t>&lt;1 month</t>
   </si>
@@ -110,54 +110,54 @@
     <t>Other</t>
   </si>
   <si>
+    <t>Distribution</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Stunting</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>mild</t>
+  </si>
+  <si>
+    <t>moderate</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>Wasting</t>
+  </si>
+  <si>
+    <t>Breastfeeding</t>
+  </si>
+  <si>
+    <t>exclusive</t>
+  </si>
+  <si>
+    <t>predominant</t>
+  </si>
+  <si>
+    <t>partial</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
     <t>Stunting Status</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>mild</t>
-  </si>
-  <si>
-    <t>moderate</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
     <t>Wasting Status</t>
   </si>
   <si>
     <t>Breastfeeding Status</t>
   </si>
   <si>
-    <t>exclusive</t>
-  </si>
-  <si>
-    <t>predominant</t>
-  </si>
-  <si>
-    <t>partial</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>Distribution</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Stunting</t>
-  </si>
-  <si>
-    <t>Wasting</t>
-  </si>
-  <si>
-    <t>Breastfeeding</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -188,28 +188,19 @@
     <t>&lt;24 months</t>
   </si>
   <si>
-    <t>pretermSGA</t>
-  </si>
-  <si>
-    <t>pretermAGA</t>
-  </si>
-  <si>
-    <t>termSGA</t>
+    <t>Pre-term SGA</t>
+  </si>
+  <si>
+    <t>Pre-term AGA</t>
+  </si>
+  <si>
+    <t>Term SGA</t>
   </si>
   <si>
     <t>Outcome</t>
   </si>
   <si>
     <t>Term AGA</t>
-  </si>
-  <si>
-    <t>Term SGA</t>
-  </si>
-  <si>
-    <t>Pre-term AGA</t>
-  </si>
-  <si>
-    <t>Pre-term SGA</t>
   </si>
 </sst>
 </file>
@@ -383,156 +374,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>43</v>
+      <c r="A2" s="2">
+        <v>0.0198</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.1032</v>
       </c>
       <c r="C2" s="2">
-        <v>3.14</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1.73</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1.73</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1.57</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1.57</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1.75</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1.75</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1.33</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1.33</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1.52</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1.52</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1.52</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1.0</v>
+        <v>0.7419</v>
       </c>
     </row>
   </sheetData>
@@ -552,66 +411,152 @@
         <v>52</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="2">
-        <v>1.0</v>
+      <c r="B2" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="C2" s="2">
-        <v>3.03</v>
+        <v>3.14</v>
       </c>
       <c r="D2" s="2">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="E2" s="2">
-        <v>1.0</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1.49</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1.1</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
+      <c r="B5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1.41</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1.18</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="B8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1.52</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1.52</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E10" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -628,31 +573,71 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
+      <c r="A1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2">
-        <v>2.0</v>
+      <c r="A2" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="B2" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C2" s="2">
-        <v>2.0</v>
+        <v>3.03</v>
       </c>
       <c r="D2" s="2">
-        <v>2.0</v>
+        <v>1.77</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1.49</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1.1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1.41</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.18</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
@@ -672,13 +657,13 @@
         <v>53</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -1081,10 +1066,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -1103,11 +1088,11 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>14</v>
+      <c r="A2" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2">
         <v>1.0</v>
@@ -1127,7 +1112,7 @@
     </row>
     <row r="3">
       <c r="B3" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2">
         <v>1.0</v>
@@ -1147,7 +1132,7 @@
     </row>
     <row r="4">
       <c r="B4" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2">
         <v>1.0</v>
@@ -1167,7 +1152,7 @@
     </row>
     <row r="5">
       <c r="B5" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C5" s="2">
         <v>1.0</v>
@@ -1186,11 +1171,11 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>15</v>
+      <c r="A6" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2">
         <v>1.0</v>
@@ -1210,7 +1195,7 @@
     </row>
     <row r="7">
       <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C7" s="2">
         <v>1.0</v>
@@ -1230,7 +1215,7 @@
     </row>
     <row r="8">
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C8" s="2">
         <v>1.0</v>
@@ -1250,7 +1235,7 @@
     </row>
     <row r="9">
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C9" s="2">
         <v>1.0</v>
@@ -1269,11 +1254,11 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
-        <v>17</v>
+      <c r="A10" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C10" s="2">
         <v>1.0</v>
@@ -1293,7 +1278,7 @@
     </row>
     <row r="11">
       <c r="B11" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C11" s="2">
         <v>1.0</v>
@@ -1313,7 +1298,7 @@
     </row>
     <row r="12">
       <c r="B12" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C12" s="2">
         <v>1.0</v>
@@ -1333,7 +1318,7 @@
     </row>
     <row r="13">
       <c r="B13" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2">
         <v>1.0</v>
@@ -1352,170 +1337,36 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D14">
-        <v>1.0</v>
-      </c>
-      <c r="E14">
-        <v>1.0</v>
-      </c>
-      <c r="F14">
-        <v>1.0</v>
-      </c>
-      <c r="G14">
-        <v>1.0</v>
-      </c>
+      <c r="C14" s="2"/>
     </row>
     <row r="15">
-      <c r="B15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D15">
-        <v>1.0</v>
-      </c>
-      <c r="E15">
-        <v>1.0</v>
-      </c>
-      <c r="F15">
-        <v>1.0</v>
-      </c>
-      <c r="G15">
-        <v>1.0</v>
-      </c>
+      <c r="C15" s="2"/>
     </row>
     <row r="16">
-      <c r="B16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D16">
-        <v>1.0</v>
-      </c>
-      <c r="E16">
-        <v>1.0</v>
-      </c>
-      <c r="F16">
-        <v>1.0</v>
-      </c>
-      <c r="G16">
-        <v>1.0</v>
-      </c>
+      <c r="C16" s="2"/>
     </row>
     <row r="17">
-      <c r="B17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D17">
-        <v>1.0</v>
-      </c>
-      <c r="E17">
-        <v>1.0</v>
-      </c>
-      <c r="F17">
-        <v>1.0</v>
-      </c>
-      <c r="G17">
-        <v>1.0</v>
-      </c>
+      <c r="C17" s="2"/>
     </row>
     <row r="18">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D18">
-        <v>1.0</v>
-      </c>
-      <c r="E18">
-        <v>1.0</v>
-      </c>
-      <c r="F18">
-        <v>1.0</v>
-      </c>
-      <c r="G18">
-        <v>1.0</v>
-      </c>
+      <c r="C18" s="2"/>
     </row>
     <row r="19">
-      <c r="B19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D19">
-        <v>1.0</v>
-      </c>
-      <c r="E19">
-        <v>1.0</v>
-      </c>
-      <c r="F19">
-        <v>1.0</v>
-      </c>
-      <c r="G19">
-        <v>1.0</v>
-      </c>
+      <c r="C19" s="2"/>
     </row>
     <row r="20">
-      <c r="B20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D20" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E20" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F20" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G20" s="2">
-        <v>1.0</v>
-      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
     </row>
     <row r="21">
-      <c r="B21" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D21" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E21" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F21" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G21" s="2">
-        <v>1.0</v>
-      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -1534,7 +1385,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -1557,7 +1408,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2">
         <v>1.0</v>
@@ -1577,7 +1428,7 @@
     </row>
     <row r="3">
       <c r="B3" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2">
         <v>1.0</v>
@@ -1597,7 +1448,7 @@
     </row>
     <row r="4">
       <c r="B4" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2">
         <v>1.0</v>
@@ -1617,7 +1468,7 @@
     </row>
     <row r="5">
       <c r="B5" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C5" s="2">
         <v>1.0</v>
@@ -1640,7 +1491,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2">
         <v>1.0</v>
@@ -1660,7 +1511,7 @@
     </row>
     <row r="7">
       <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C7" s="2">
         <v>1.0</v>
@@ -1680,7 +1531,7 @@
     </row>
     <row r="8">
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C8" s="2">
         <v>1.0</v>
@@ -1700,7 +1551,7 @@
     </row>
     <row r="9">
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C9" s="2">
         <v>1.0</v>
@@ -1723,7 +1574,7 @@
         <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2">
         <v>1.0</v>
@@ -1743,7 +1594,7 @@
     </row>
     <row r="11">
       <c r="B11" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C11" s="2">
         <v>1.0</v>
@@ -1763,7 +1614,7 @@
     </row>
     <row r="12">
       <c r="B12" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C12" s="2">
         <v>1.0</v>
@@ -1783,7 +1634,7 @@
     </row>
     <row r="13">
       <c r="B13" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C13" s="2">
         <v>1.0</v>
@@ -1806,7 +1657,7 @@
         <v>18</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2">
         <v>1.0</v>
@@ -1826,7 +1677,7 @@
     </row>
     <row r="15">
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C15" s="2">
         <v>1.0</v>
@@ -1846,7 +1697,7 @@
     </row>
     <row r="16">
       <c r="B16" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C16" s="2">
         <v>1.0</v>
@@ -1866,7 +1717,7 @@
     </row>
     <row r="17">
       <c r="B17" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C17" s="2">
         <v>1.0</v>
@@ -1889,7 +1740,7 @@
         <v>22</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C18" s="2">
         <v>1.0</v>
@@ -1909,7 +1760,7 @@
     </row>
     <row r="19">
       <c r="B19" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C19" s="2">
         <v>1.0</v>
@@ -1929,7 +1780,7 @@
     </row>
     <row r="20">
       <c r="B20" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C20" s="2">
         <v>1.0</v>
@@ -1949,7 +1800,7 @@
     </row>
     <row r="21">
       <c r="B21" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C21" s="2">
         <v>1.0</v>
@@ -1973,6 +1824,456 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D2">
+        <v>1.0</v>
+      </c>
+      <c r="E2">
+        <v>1.0</v>
+      </c>
+      <c r="F2">
+        <v>1.0</v>
+      </c>
+      <c r="G2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D6">
+        <v>1.0</v>
+      </c>
+      <c r="E6">
+        <v>1.0</v>
+      </c>
+      <c r="F6">
+        <v>1.0</v>
+      </c>
+      <c r="G6">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D10">
+        <v>1.0</v>
+      </c>
+      <c r="E10">
+        <v>1.0</v>
+      </c>
+      <c r="F10">
+        <v>1.0</v>
+      </c>
+      <c r="G10">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D11">
+        <v>1.0</v>
+      </c>
+      <c r="E11">
+        <v>1.0</v>
+      </c>
+      <c r="F11">
+        <v>1.0</v>
+      </c>
+      <c r="G11">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D14">
+        <v>1.0</v>
+      </c>
+      <c r="E14">
+        <v>1.0</v>
+      </c>
+      <c r="F14">
+        <v>1.0</v>
+      </c>
+      <c r="G14">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D15">
+        <v>1.0</v>
+      </c>
+      <c r="E15">
+        <v>1.0</v>
+      </c>
+      <c r="F15">
+        <v>1.0</v>
+      </c>
+      <c r="G15">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D16">
+        <v>1.0</v>
+      </c>
+      <c r="E16">
+        <v>1.0</v>
+      </c>
+      <c r="F16">
+        <v>1.0</v>
+      </c>
+      <c r="G16">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D17">
+        <v>1.0</v>
+      </c>
+      <c r="E17">
+        <v>1.0</v>
+      </c>
+      <c r="F17">
+        <v>1.0</v>
+      </c>
+      <c r="G17">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D18">
+        <v>1.0</v>
+      </c>
+      <c r="E18">
+        <v>1.0</v>
+      </c>
+      <c r="F18">
+        <v>1.0</v>
+      </c>
+      <c r="G18">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D19">
+        <v>1.0</v>
+      </c>
+      <c r="E19">
+        <v>1.0</v>
+      </c>
+      <c r="F19">
+        <v>1.0</v>
+      </c>
+      <c r="G19">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1987,7 +2288,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -2010,7 +2311,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2">
         <v>1.0</v>
@@ -2030,7 +2331,7 @@
     </row>
     <row r="3">
       <c r="B3" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C3" s="2">
         <v>1.0</v>
@@ -2050,7 +2351,7 @@
     </row>
     <row r="4">
       <c r="B4" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C4" s="2">
         <v>1.0</v>
@@ -2070,7 +2371,7 @@
     </row>
     <row r="5">
       <c r="B5" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C5" s="2">
         <v>1.0</v>
@@ -2093,7 +2394,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C6" s="2">
         <v>1.0</v>
@@ -2113,7 +2414,7 @@
     </row>
     <row r="7">
       <c r="B7" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C7" s="2">
         <v>1.0</v>
@@ -2133,7 +2434,7 @@
     </row>
     <row r="8">
       <c r="B8" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C8" s="2">
         <v>1.0</v>
@@ -2153,7 +2454,7 @@
     </row>
     <row r="9">
       <c r="B9" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C9" s="2">
         <v>1.0</v>
@@ -2176,7 +2477,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C10" s="2">
         <v>1.0</v>
@@ -2196,7 +2497,7 @@
     </row>
     <row r="11">
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C11" s="2">
         <v>1.0</v>
@@ -2216,7 +2517,7 @@
     </row>
     <row r="12">
       <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C12" s="2">
         <v>1.0</v>
@@ -2236,7 +2537,7 @@
     </row>
     <row r="13">
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2">
         <v>1.0</v>
@@ -2259,7 +2560,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C14" s="2">
         <v>1.0</v>
@@ -2279,7 +2580,7 @@
     </row>
     <row r="15">
       <c r="B15" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C15" s="2">
         <v>1.0</v>
@@ -2299,7 +2600,7 @@
     </row>
     <row r="16">
       <c r="B16" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C16" s="2">
         <v>1.0</v>
@@ -2319,7 +2620,7 @@
     </row>
     <row r="17">
       <c r="B17" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C17" s="2">
         <v>1.0</v>
@@ -2342,7 +2643,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C18" s="2">
         <v>1.0</v>
@@ -2362,7 +2663,7 @@
     </row>
     <row r="19">
       <c r="B19" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C19" s="2">
         <v>1.0</v>
@@ -2382,7 +2683,7 @@
     </row>
     <row r="20">
       <c r="B20" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C20" s="2">
         <v>1.0</v>
@@ -2402,7 +2703,7 @@
     </row>
     <row r="21">
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C21" s="2">
         <v>1.0</v>
@@ -2425,7 +2726,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C22" s="2">
         <v>1.0</v>
@@ -2445,7 +2746,7 @@
     </row>
     <row r="23">
       <c r="B23" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C23" s="2">
         <v>1.0</v>
@@ -2465,7 +2766,7 @@
     </row>
     <row r="24">
       <c r="B24" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C24" s="2">
         <v>1.0</v>
@@ -2485,7 +2786,7 @@
     </row>
     <row r="25">
       <c r="B25" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C25" s="2">
         <v>1.0</v>
@@ -2508,7 +2809,7 @@
         <v>16</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C26" s="2">
         <v>1.0</v>
@@ -2528,7 +2829,7 @@
     </row>
     <row r="27">
       <c r="B27" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C27" s="2">
         <v>1.0</v>
@@ -2548,7 +2849,7 @@
     </row>
     <row r="28">
       <c r="B28" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C28" s="2">
         <v>1.0</v>
@@ -2568,7 +2869,7 @@
     </row>
     <row r="29">
       <c r="B29" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C29" s="2">
         <v>1.0</v>
@@ -2637,322 +2938,6 @@
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D2">
-        <v>1.0</v>
-      </c>
-      <c r="E2">
-        <v>1.0</v>
-      </c>
-      <c r="F2">
-        <v>1.0</v>
-      </c>
-      <c r="G2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D6">
-        <v>1.0</v>
-      </c>
-      <c r="E6">
-        <v>1.0</v>
-      </c>
-      <c r="F6">
-        <v>1.0</v>
-      </c>
-      <c r="G6">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G7" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G8" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G9" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D10">
-        <v>1.0</v>
-      </c>
-      <c r="E10">
-        <v>1.0</v>
-      </c>
-      <c r="F10">
-        <v>1.0</v>
-      </c>
-      <c r="G10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D11">
-        <v>1.0</v>
-      </c>
-      <c r="E11">
-        <v>1.0</v>
-      </c>
-      <c r="F11">
-        <v>1.0</v>
-      </c>
-      <c r="G11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E12" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F12" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G12" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D13" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E13" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F13" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G13" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15">
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16">
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17">
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18">
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19">
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20">
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21">
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -2967,60 +2952,31 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="2"/>
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>43</v>
+      <c r="A2" s="2">
+        <v>2.0</v>
       </c>
       <c r="B2" s="2">
-        <v>0.0543</v>
+        <v>2.0</v>
       </c>
       <c r="C2" s="2">
-        <v>0.1711</v>
+        <v>2.0</v>
       </c>
       <c r="D2" s="2">
-        <v>3.0E-4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0.009</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.3607</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.0085</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.2908</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.1048</v>
+        <v>2.0</v>
       </c>
     </row>
   </sheetData>
@@ -3037,30 +2993,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2">
-        <v>0.2258</v>
-      </c>
       <c r="B2" s="2">
-        <v>0.0705</v>
+        <v>0.0543</v>
       </c>
       <c r="C2" s="2">
-        <v>0.134</v>
+        <v>0.1711</v>
       </c>
       <c r="D2" s="2">
-        <v>0.5698</v>
+        <v>3.0E-4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.009</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.3607</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.0085</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.2908</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.1048</v>
       </c>
     </row>
   </sheetData>
@@ -3077,24 +3062,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>0.0198</v>
+        <v>0.2258</v>
       </c>
       <c r="B2" s="2">
-        <v>0.1032</v>
+        <v>0.0705</v>
       </c>
       <c r="C2" s="2">
-        <v>0.7419</v>
+        <v>0.134</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.5698</v>
       </c>
     </row>
   </sheetData>

--- a/InputForCode_tests.xlsx
+++ b/InputForCode_tests.xlsx
@@ -10,12 +10,14 @@
     <sheet state="visible" name="RRWasting" sheetId="5" r:id="rId7"/>
     <sheet state="visible" name="RRBreastfeeding" sheetId="6" r:id="rId8"/>
     <sheet state="visible" name="OR stunting progression" sheetId="7" r:id="rId9"/>
-    <sheet state="visible" name="birth distribution" sheetId="8" r:id="rId10"/>
-    <sheet state="visible" name="time between births" sheetId="9" r:id="rId11"/>
-    <sheet state="visible" name="birth outcome distribution" sheetId="10" r:id="rId12"/>
-    <sheet state="visible" name="RR birth by type" sheetId="11" r:id="rId13"/>
-    <sheet state="visible" name="RR birth by time" sheetId="12" r:id="rId14"/>
-    <sheet state="visible" name="OR birth outcome stunting" sheetId="13" r:id="rId15"/>
+    <sheet state="visible" name="Incidence Diarrhoea" sheetId="8" r:id="rId10"/>
+    <sheet state="visible" name="RR diarrhoea" sheetId="9" r:id="rId11"/>
+    <sheet state="visible" name="birth distribution" sheetId="10" r:id="rId12"/>
+    <sheet state="visible" name="time between births" sheetId="11" r:id="rId13"/>
+    <sheet state="visible" name="birth outcome distribution" sheetId="12" r:id="rId14"/>
+    <sheet state="visible" name="RR birth by type" sheetId="13" r:id="rId15"/>
+    <sheet state="visible" name="RR birth by time" sheetId="14" r:id="rId16"/>
+    <sheet state="visible" name="OR birth outcome stunting" sheetId="15" r:id="rId17"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="55">
   <si>
     <t>&lt;1 month</t>
   </si>
@@ -156,6 +158,9 @@
   </si>
   <si>
     <t>Breastfeeding Status</t>
+  </si>
+  <si>
+    <t>Breastfeeding Category</t>
   </si>
   <si>
     <t>Type</t>
@@ -207,7 +212,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -219,6 +227,9 @@
       <name val="Calibri"/>
     </font>
     <font/>
+    <font>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -239,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -251,6 +262,15 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
@@ -286,6 +306,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
+<file path=xl/drawings/worksheetdrawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
+<file path=xl/drawings/worksheetdrawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
 <file path=xl/drawings/worksheetdrawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
@@ -374,24 +402,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>51</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="2">
-        <v>0.0198</v>
+      <c r="A2" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="B2" s="2">
-        <v>0.1032</v>
+        <v>0.0543</v>
       </c>
       <c r="C2" s="2">
-        <v>0.7419</v>
+        <v>0.1711</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3.0E-4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.009</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.3607</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.0085</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.2908</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.1048</v>
       </c>
     </row>
   </sheetData>
@@ -408,156 +471,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>43</v>
+      <c r="A2" s="2">
+        <v>0.2258</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.0705</v>
       </c>
       <c r="C2" s="2">
-        <v>3.14</v>
+        <v>0.134</v>
       </c>
       <c r="D2" s="2">
-        <v>1.73</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1.73</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1.57</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1.57</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1.75</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1.75</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1.33</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1.33</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1.52</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1.52</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1.52</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1.0</v>
+        <v>0.5698</v>
       </c>
     </row>
   </sheetData>
@@ -574,70 +511,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>49</v>
+      <c r="A2" s="2">
+        <v>0.0198</v>
       </c>
       <c r="B2" s="2">
-        <v>1.0</v>
+        <v>0.1032</v>
       </c>
       <c r="C2" s="2">
-        <v>3.03</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1.77</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1.49</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1.1</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1.41</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1.18</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1.0</v>
+        <v>0.7419</v>
       </c>
     </row>
   </sheetData>
@@ -653,30 +544,276 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="2">
+        <v>3.14</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1.73</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1.52</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1.52</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>49</v>
+      <c r="B2" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>3.03</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1.77</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1.49</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1.1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1.41</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.18</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="5">
+      <c r="A2" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="8">
         <v>2.82</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="8">
         <v>1.94</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="8">
         <v>4.98</v>
       </c>
     </row>
@@ -2992,60 +3129,37 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="2"/>
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0.0543</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.1711</v>
-      </c>
-      <c r="D2" s="2">
-        <v>3.0E-4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0.009</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.3607</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.0085</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.2908</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.1048</v>
+      <c r="A2" s="5">
+        <v>0.23981666666666668</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0.23981666666666668</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0.36586416666666666</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0.29612333333333335</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0.18924083333333333</v>
       </c>
     </row>
   </sheetData>
@@ -3059,33 +3173,108 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="26.71"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>48</v>
+      <c r="A1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2">
-        <v>0.2258</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0.0705</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.134</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.5698</v>
+      <c r="A2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="D2" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="F2" s="6">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1.26</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1.26</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="F3" s="6">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1.68</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1.68</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="6">
+        <v>2.65</v>
+      </c>
+      <c r="C5" s="6">
+        <v>2.65</v>
+      </c>
+      <c r="D5" s="6">
+        <v>2.07</v>
+      </c>
+      <c r="E5" s="6">
+        <v>2.07</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>

--- a/InputForCode_tests.xlsx
+++ b/InputForCode_tests.xlsx
@@ -10,14 +10,15 @@
     <sheet state="visible" name="RRWasting" sheetId="5" r:id="rId7"/>
     <sheet state="visible" name="RRBreastfeeding" sheetId="6" r:id="rId8"/>
     <sheet state="visible" name="OR stunting progression" sheetId="7" r:id="rId9"/>
-    <sheet state="visible" name="Incidence Diarrhoea" sheetId="8" r:id="rId10"/>
+    <sheet state="visible" name="Incidence diarrhoea" sheetId="8" r:id="rId10"/>
     <sheet state="visible" name="RR diarrhoea" sheetId="9" r:id="rId11"/>
-    <sheet state="visible" name="birth distribution" sheetId="10" r:id="rId12"/>
-    <sheet state="visible" name="time between births" sheetId="11" r:id="rId13"/>
-    <sheet state="visible" name="birth outcome distribution" sheetId="12" r:id="rId14"/>
-    <sheet state="visible" name="RR birth by type" sheetId="13" r:id="rId15"/>
-    <sheet state="visible" name="RR birth by time" sheetId="14" r:id="rId16"/>
-    <sheet state="visible" name="OR birth outcome stunting" sheetId="15" r:id="rId17"/>
+    <sheet state="visible" name="OR stunting diarrhoea" sheetId="10" r:id="rId12"/>
+    <sheet state="visible" name="birth distribution" sheetId="11" r:id="rId13"/>
+    <sheet state="visible" name="time between births" sheetId="12" r:id="rId14"/>
+    <sheet state="visible" name="birth outcome distribution" sheetId="13" r:id="rId15"/>
+    <sheet state="visible" name="RR birth by type" sheetId="14" r:id="rId16"/>
+    <sheet state="visible" name="RR birth by time" sheetId="15" r:id="rId17"/>
+    <sheet state="visible" name="OR birth outcome stunting" sheetId="16" r:id="rId18"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="55">
   <si>
     <t>&lt;1 month</t>
   </si>
@@ -314,6 +315,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
+<file path=xl/drawings/worksheetdrawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
 <file path=xl/drawings/worksheetdrawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
@@ -401,60 +406,37 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="2"/>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0.0543</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.1711</v>
-      </c>
-      <c r="D2" s="2">
-        <v>3.0E-4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0.009</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.3607</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.0085</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.2908</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.1048</v>
+      <c r="A2">
+        <v>1.04</v>
+      </c>
+      <c r="B2">
+        <v>1.04</v>
+      </c>
+      <c r="C2">
+        <v>1.04</v>
+      </c>
+      <c r="D2">
+        <v>1.04</v>
+      </c>
+      <c r="E2">
+        <v>1.04</v>
       </c>
     </row>
   </sheetData>
@@ -471,30 +453,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2">
-        <v>0.2258</v>
-      </c>
       <c r="B2" s="2">
-        <v>0.0705</v>
+        <v>0.0543</v>
       </c>
       <c r="C2" s="2">
-        <v>0.134</v>
+        <v>0.1711</v>
       </c>
       <c r="D2" s="2">
-        <v>0.5698</v>
+        <v>3.0E-4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.009</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.3607</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.0085</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.2908</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.1048</v>
       </c>
     </row>
   </sheetData>
@@ -511,24 +522,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>52</v>
+        <v>44</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>0.0198</v>
+        <v>0.2258</v>
       </c>
       <c r="B2" s="2">
-        <v>0.1032</v>
+        <v>0.0705</v>
       </c>
       <c r="C2" s="2">
-        <v>0.7419</v>
+        <v>0.134</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.5698</v>
       </c>
     </row>
   </sheetData>
@@ -545,156 +562,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>44</v>
+      <c r="A2" s="2">
+        <v>0.0198</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.1032</v>
       </c>
       <c r="C2" s="2">
-        <v>3.14</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1.73</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1.73</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1.57</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1.57</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1.75</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1.75</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1.33</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1.33</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1.52</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1.52</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1.52</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1.0</v>
+        <v>0.7419</v>
       </c>
     </row>
   </sheetData>
@@ -714,22 +599,188 @@
         <v>53</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
         <v>50</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="2">
+        <v>3.14</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1.73</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1.52</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1.52</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="B2" s="2">
         <v>1.0</v>
       </c>
@@ -782,7 +833,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/InputForCode_tests.xlsx
+++ b/InputForCode_tests.xlsx
@@ -258,10 +258,10 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -377,19 +377,19 @@
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="B2" s="1">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="C2" s="1">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="D2" s="1">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="E2" s="1">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
     </row>
   </sheetData>
@@ -452,59 +452,59 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="2"/>
+      <c r="E1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>0.0543</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>0.1711</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <v>3.0E-4</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>0.009</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>0.3607</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>0.0085</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="B4" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C4" s="3">
         <v>0.2908</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>0.1048</v>
       </c>
     </row>
@@ -521,30 +521,30 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>0.2258</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>0.0705</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>0.134</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <v>0.5698</v>
       </c>
     </row>
@@ -561,7 +561,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B1" s="7" t="s">
@@ -572,13 +572,13 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>0.0198</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>0.1032</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>0.7419</v>
       </c>
     </row>
@@ -595,66 +595,66 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>3.14</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <v>1.73</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <v>1.73</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>1.6</v>
       </c>
-      <c r="D3" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="D3" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E3" s="3">
         <v>1.57</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>1.6</v>
       </c>
-      <c r="D4" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="D4" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E4" s="3">
         <v>1.57</v>
       </c>
     </row>
@@ -662,44 +662,44 @@
       <c r="A5" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>1.75</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>1.75</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
         <v>1.75</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>1.4</v>
       </c>
-      <c r="D6" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="D6" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E6" s="3">
         <v>1.33</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="3">
         <v>1.4</v>
       </c>
-      <c r="D7" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="D7" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E7" s="3">
         <v>1.33</v>
       </c>
     </row>
@@ -707,44 +707,44 @@
       <c r="A8" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="3">
         <v>1.52</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="3">
         <v>1.52</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="3">
         <v>1.52</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="3">
         <v>1.2</v>
       </c>
-      <c r="D9" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="D9" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E9" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="3">
         <v>1.2</v>
       </c>
-      <c r="D10" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E10" s="2">
+      <c r="D10" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E10" s="3">
         <v>1.0</v>
       </c>
     </row>
@@ -761,36 +761,36 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="B2" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C2" s="3">
         <v>3.03</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <v>1.77</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <v>1.0</v>
       </c>
     </row>
@@ -798,16 +798,16 @@
       <c r="A3" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="B3" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C3" s="3">
         <v>1.49</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>1.1</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <v>1.0</v>
       </c>
     </row>
@@ -815,16 +815,16 @@
       <c r="A4" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="B4" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C4" s="3">
         <v>1.41</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>1.18</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <v>1.0</v>
       </c>
     </row>
@@ -905,7 +905,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
-        <v>100.0</v>
+        <v>1.0</v>
       </c>
       <c r="C2" s="2">
         <v>0.0</v>
@@ -1064,27 +1064,27 @@
       <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>0.0</v>
       </c>
       <c r="C10" s="2">
-        <v>100.0</v>
+        <v>1.0</v>
       </c>
       <c r="D10" s="2">
-        <v>100.0</v>
+        <v>1.0</v>
       </c>
       <c r="E10" s="2">
-        <v>100.0</v>
+        <v>1.0</v>
       </c>
       <c r="F10" s="2">
-        <v>100.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>0.0</v>
       </c>
       <c r="C11" s="2">
@@ -1104,7 +1104,7 @@
       <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>0.0</v>
       </c>
       <c r="C12" s="2">
@@ -1227,16 +1227,16 @@
       <c r="B18" s="2">
         <v>0.0</v>
       </c>
-      <c r="C18" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="D18" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="E18" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="C18" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F18" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -1253,10 +1253,10 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C1" t="s">
@@ -1276,13 +1276,13 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>1.0</v>
       </c>
       <c r="D2">
@@ -1299,73 +1299,73 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G3" s="2">
+      <c r="C3" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G3" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G4" s="2">
+      <c r="C4" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G4" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G5" s="2">
+      <c r="C5" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G5" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>1.0</v>
       </c>
       <c r="D6">
@@ -1382,73 +1382,73 @@
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G7" s="2">
+      <c r="C7" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G7" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G8" s="2">
+      <c r="C8" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G8" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G9" s="2">
+      <c r="C9" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G9" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="3">
         <v>1.0</v>
       </c>
       <c r="D10">
@@ -1465,10 +1465,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="3">
         <v>1.0</v>
       </c>
       <c r="D11">
@@ -1485,76 +1485,76 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E12" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F12" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G12" s="2">
+      <c r="C12" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G12" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D13" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E13" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F13" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G13" s="2">
+      <c r="C13" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G13" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="14">
-      <c r="C14" s="2"/>
+      <c r="C14" s="3"/>
     </row>
     <row r="15">
-      <c r="C15" s="2"/>
+      <c r="C15" s="3"/>
     </row>
     <row r="16">
-      <c r="C16" s="2"/>
+      <c r="C16" s="3"/>
     </row>
     <row r="17">
-      <c r="C17" s="2"/>
+      <c r="C17" s="3"/>
     </row>
     <row r="18">
-      <c r="C18" s="2"/>
+      <c r="C18" s="3"/>
     </row>
     <row r="19">
-      <c r="C19" s="2"/>
+      <c r="C19" s="3"/>
     </row>
     <row r="20">
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
     </row>
     <row r="21">
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -1569,10 +1569,10 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C1" t="s">
@@ -1595,10 +1595,10 @@
       <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>1.0</v>
       </c>
       <c r="D2">
@@ -1615,62 +1615,62 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G3" s="2">
+      <c r="C3" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G3" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G4" s="2">
+      <c r="C4" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G4" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G5" s="2">
+      <c r="C5" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G5" s="3">
         <v>1.0</v>
       </c>
     </row>
@@ -1678,10 +1678,10 @@
       <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>1.0</v>
       </c>
       <c r="D6">
@@ -1698,62 +1698,62 @@
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G7" s="2">
+      <c r="C7" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G7" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G8" s="2">
+      <c r="C8" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G8" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G9" s="2">
+      <c r="C9" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G9" s="3">
         <v>1.0</v>
       </c>
     </row>
@@ -1761,10 +1761,10 @@
       <c r="A10" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="3">
         <v>1.0</v>
       </c>
       <c r="D10">
@@ -1781,10 +1781,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="3">
         <v>1.0</v>
       </c>
       <c r="D11">
@@ -1801,42 +1801,42 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E12" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F12" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G12" s="2">
+      <c r="C12" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G12" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D13" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E13" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F13" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G13" s="2">
+      <c r="C13" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G13" s="3">
         <v>1.0</v>
       </c>
     </row>
@@ -1844,10 +1844,10 @@
       <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="3">
         <v>1.0</v>
       </c>
       <c r="D14">
@@ -1864,10 +1864,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="3">
         <v>1.0</v>
       </c>
       <c r="D15">
@@ -1884,10 +1884,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="3">
         <v>1.0</v>
       </c>
       <c r="D16">
@@ -1904,10 +1904,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="3">
         <v>1.0</v>
       </c>
       <c r="D17">
@@ -1927,10 +1927,10 @@
       <c r="A18" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="3">
         <v>1.0</v>
       </c>
       <c r="D18">
@@ -1947,10 +1947,10 @@
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="3">
         <v>1.0</v>
       </c>
       <c r="D19">
@@ -1967,42 +1967,42 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D20" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E20" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F20" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G20" s="2">
+      <c r="C20" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G20" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D21" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E21" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F21" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G21" s="2">
+      <c r="C21" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G21" s="3">
         <v>1.0</v>
       </c>
     </row>
@@ -2019,10 +2019,10 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C1" t="s">
@@ -2045,10 +2045,10 @@
       <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>1.0</v>
       </c>
       <c r="D2">
@@ -2065,62 +2065,62 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G3" s="2">
+      <c r="C3" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G3" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G4" s="2">
+      <c r="C4" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G4" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G5" s="2">
+      <c r="C5" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G5" s="3">
         <v>1.0</v>
       </c>
     </row>
@@ -2128,10 +2128,10 @@
       <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>1.0</v>
       </c>
       <c r="D6">
@@ -2148,62 +2148,62 @@
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G7" s="2">
+      <c r="C7" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G7" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G8" s="2">
+      <c r="C8" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G8" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G9" s="2">
+      <c r="C9" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G9" s="3">
         <v>1.0</v>
       </c>
     </row>
@@ -2211,10 +2211,10 @@
       <c r="A10" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="3">
         <v>1.0</v>
       </c>
       <c r="D10">
@@ -2231,10 +2231,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="3">
         <v>1.0</v>
       </c>
       <c r="D11">
@@ -2251,42 +2251,42 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E12" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F12" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G12" s="2">
+      <c r="C12" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G12" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D13" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E13" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F13" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G13" s="2">
+      <c r="C13" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G13" s="3">
         <v>1.0</v>
       </c>
     </row>
@@ -2294,10 +2294,10 @@
       <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="3">
         <v>1.0</v>
       </c>
       <c r="D14">
@@ -2314,10 +2314,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="3">
         <v>1.0</v>
       </c>
       <c r="D15">
@@ -2334,10 +2334,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="3">
         <v>1.0</v>
       </c>
       <c r="D16">
@@ -2354,10 +2354,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="3">
         <v>1.0</v>
       </c>
       <c r="D17">
@@ -2377,10 +2377,10 @@
       <c r="A18" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="3">
         <v>1.0</v>
       </c>
       <c r="D18">
@@ -2397,10 +2397,10 @@
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="3">
         <v>1.0</v>
       </c>
       <c r="D19">
@@ -2417,42 +2417,42 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D20" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E20" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F20" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G20" s="2">
+      <c r="C20" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G20" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D21" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E21" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F21" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G21" s="2">
+      <c r="C21" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G21" s="3">
         <v>1.0</v>
       </c>
     </row>
@@ -2472,10 +2472,10 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C1" t="s">
@@ -2498,10 +2498,10 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>1.0</v>
       </c>
       <c r="D2">
@@ -2518,62 +2518,62 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G3" s="2">
+      <c r="C3" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G3" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G4" s="2">
+      <c r="C4" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G4" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G5" s="2">
+      <c r="C5" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G5" s="3">
         <v>1.0</v>
       </c>
     </row>
@@ -2581,10 +2581,10 @@
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>1.0</v>
       </c>
       <c r="D6">
@@ -2601,62 +2601,62 @@
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G7" s="2">
+      <c r="C7" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G7" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G8" s="2">
+      <c r="C8" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G8" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G9" s="2">
+      <c r="C9" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G9" s="3">
         <v>1.0</v>
       </c>
     </row>
@@ -2664,10 +2664,10 @@
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="3">
         <v>1.0</v>
       </c>
       <c r="D10">
@@ -2684,10 +2684,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="3">
         <v>1.0</v>
       </c>
       <c r="D11">
@@ -2704,42 +2704,42 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E12" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F12" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G12" s="2">
+      <c r="C12" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G12" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D13" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E13" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F13" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G13" s="2">
+      <c r="C13" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G13" s="3">
         <v>1.0</v>
       </c>
     </row>
@@ -2747,10 +2747,10 @@
       <c r="A14" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="3">
         <v>1.0</v>
       </c>
       <c r="D14">
@@ -2767,10 +2767,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="3">
         <v>1.0</v>
       </c>
       <c r="D15">
@@ -2787,10 +2787,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="3">
         <v>1.0</v>
       </c>
       <c r="D16">
@@ -2807,10 +2807,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="3">
         <v>1.0</v>
       </c>
       <c r="D17">
@@ -2830,10 +2830,10 @@
       <c r="A18" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="3">
         <v>1.0</v>
       </c>
       <c r="D18">
@@ -2850,10 +2850,10 @@
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="3">
         <v>1.0</v>
       </c>
       <c r="D19">
@@ -2870,42 +2870,42 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D20" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E20" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F20" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G20" s="2">
+      <c r="C20" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G20" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D21" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E21" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F21" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G21" s="2">
+      <c r="C21" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G21" s="3">
         <v>1.0</v>
       </c>
     </row>
@@ -2913,10 +2913,10 @@
       <c r="A22" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="3">
         <v>1.0</v>
       </c>
       <c r="D22">
@@ -2933,62 +2933,62 @@
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D23" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E23" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F23" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G23" s="2">
+      <c r="C23" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G23" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D24" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E24" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F24" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G24" s="2">
+      <c r="C24" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G24" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D25" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E25" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F25" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G25" s="2">
+      <c r="C25" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G25" s="3">
         <v>1.0</v>
       </c>
     </row>
@@ -2996,10 +2996,10 @@
       <c r="A26" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="3">
         <v>1.0</v>
       </c>
       <c r="D26">
@@ -3016,116 +3016,116 @@
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D27" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E27" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F27" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G27" s="2">
+      <c r="C27" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G27" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="28">
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D28" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E28" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F28" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G28" s="2">
+      <c r="C28" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G28" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="29">
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D29" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E29" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F29" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G29" s="2">
+      <c r="C29" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D29" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G29" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="30">
-      <c r="C30" s="2"/>
+      <c r="C30" s="3"/>
     </row>
     <row r="31">
-      <c r="C31" s="2"/>
+      <c r="C31" s="3"/>
     </row>
     <row r="32">
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
     </row>
     <row r="33">
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
     </row>
     <row r="34">
-      <c r="C34" s="2"/>
+      <c r="C34" s="3"/>
     </row>
     <row r="35">
-      <c r="C35" s="2"/>
+      <c r="C35" s="3"/>
     </row>
     <row r="36">
-      <c r="C36" s="2"/>
+      <c r="C36" s="3"/>
     </row>
     <row r="37">
-      <c r="C37" s="2"/>
+      <c r="C37" s="3"/>
     </row>
     <row r="38">
-      <c r="C38" s="2"/>
+      <c r="C38" s="3"/>
     </row>
     <row r="39">
-      <c r="C39" s="2"/>
+      <c r="C39" s="3"/>
     </row>
     <row r="40">
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
     </row>
     <row r="41">
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -3154,16 +3154,16 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>2.0</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>2.0</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>2.0</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <v>2.0</v>
       </c>
     </row>

--- a/InputForCode_tests.xlsx
+++ b/InputForCode_tests.xlsx
@@ -9,16 +9,17 @@
     <sheet state="visible" name="RRStunting" sheetId="4" r:id="rId6"/>
     <sheet state="visible" name="RRWasting" sheetId="5" r:id="rId7"/>
     <sheet state="visible" name="RRBreastfeeding" sheetId="6" r:id="rId8"/>
-    <sheet state="visible" name="OR stunting progression" sheetId="7" r:id="rId9"/>
-    <sheet state="visible" name="Incidence diarrhoea" sheetId="8" r:id="rId10"/>
-    <sheet state="visible" name="RR diarrhoea" sheetId="9" r:id="rId11"/>
-    <sheet state="visible" name="OR stunting diarrhoea" sheetId="10" r:id="rId12"/>
-    <sheet state="visible" name="birth distribution" sheetId="11" r:id="rId13"/>
-    <sheet state="visible" name="time between births" sheetId="12" r:id="rId14"/>
-    <sheet state="visible" name="birth outcome distribution" sheetId="13" r:id="rId15"/>
-    <sheet state="visible" name="RR birth by type" sheetId="14" r:id="rId16"/>
-    <sheet state="visible" name="RR birth by time" sheetId="15" r:id="rId17"/>
-    <sheet state="visible" name="OR birth outcome stunting" sheetId="16" r:id="rId18"/>
+    <sheet state="visible" name="RR Death by Birth Outcome" sheetId="7" r:id="rId9"/>
+    <sheet state="visible" name="OR stunting progression" sheetId="8" r:id="rId10"/>
+    <sheet state="visible" name="Incidence diarrhoea" sheetId="9" r:id="rId11"/>
+    <sheet state="visible" name="RR diarrhoea" sheetId="10" r:id="rId12"/>
+    <sheet state="visible" name="OR stunting diarrhoea" sheetId="11" r:id="rId13"/>
+    <sheet state="visible" name="birth distribution" sheetId="12" r:id="rId14"/>
+    <sheet state="visible" name="time between births" sheetId="13" r:id="rId15"/>
+    <sheet state="visible" name="birth outcome distribution" sheetId="14" r:id="rId16"/>
+    <sheet state="visible" name="RR birth by type" sheetId="15" r:id="rId17"/>
+    <sheet state="visible" name="RR birth by time" sheetId="16" r:id="rId18"/>
+    <sheet state="visible" name="OR birth outcome stunting" sheetId="17" r:id="rId19"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="56">
   <si>
     <t>&lt;1 month</t>
   </si>
@@ -161,6 +162,21 @@
     <t>Breastfeeding Status</t>
   </si>
   <si>
+    <t>Term AGA</t>
+  </si>
+  <si>
+    <t>Term SGA</t>
+  </si>
+  <si>
+    <t>Pre-term AGA</t>
+  </si>
+  <si>
+    <t>Pre-term SGA</t>
+  </si>
+  <si>
+    <t>Neonatal congenital anomalies</t>
+  </si>
+  <si>
     <t>Breastfeeding Category</t>
   </si>
   <si>
@@ -194,19 +210,7 @@
     <t>&lt;24 months</t>
   </si>
   <si>
-    <t>Pre-term SGA</t>
-  </si>
-  <si>
-    <t>Pre-term AGA</t>
-  </si>
-  <si>
-    <t>Term SGA</t>
-  </si>
-  <si>
     <t>Outcome</t>
-  </si>
-  <si>
-    <t>Term AGA</t>
   </si>
 </sst>
 </file>
@@ -214,7 +218,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -251,7 +255,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -267,10 +271,16 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -319,6 +329,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
+<file path=xl/drawings/worksheetdrawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
 <file path=xl/drawings/worksheetdrawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
@@ -404,39 +418,108 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="26.71"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>1.04</v>
-      </c>
-      <c r="B2">
-        <v>1.04</v>
-      </c>
-      <c r="C2">
-        <v>1.04</v>
-      </c>
-      <c r="D2">
-        <v>1.04</v>
-      </c>
-      <c r="E2">
-        <v>1.04</v>
+      <c r="A2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="D2" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="F2" s="6">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="C3" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="F3" s="6">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="C4" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="C5" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="E5" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
@@ -452,60 +535,37 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="3"/>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0.0543</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0.1711</v>
-      </c>
-      <c r="D2" s="3">
-        <v>3.0E-4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0.009</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0.3607</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0.0085</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.2908</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.1048</v>
+      <c r="A2">
+        <v>1.04</v>
+      </c>
+      <c r="B2">
+        <v>1.04</v>
+      </c>
+      <c r="C2">
+        <v>1.04</v>
+      </c>
+      <c r="D2">
+        <v>1.04</v>
+      </c>
+      <c r="E2">
+        <v>1.04</v>
       </c>
     </row>
   </sheetData>
@@ -522,30 +582,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3">
-        <v>0.2258</v>
-      </c>
       <c r="B2" s="3">
-        <v>0.0705</v>
+        <v>0.0</v>
       </c>
       <c r="C2" s="3">
-        <v>0.134</v>
+        <v>0.2</v>
       </c>
       <c r="D2" s="3">
-        <v>0.5698</v>
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -562,24 +651,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>52</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3">
-        <v>0.0198</v>
+        <v>0.2</v>
       </c>
       <c r="B2" s="3">
-        <v>0.1032</v>
+        <v>0.0</v>
       </c>
       <c r="C2" s="3">
-        <v>0.7419</v>
+        <v>0.0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -596,156 +691,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>44</v>
+      <c r="A2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.0</v>
       </c>
       <c r="C2" s="3">
-        <v>3.14</v>
-      </c>
-      <c r="D2" s="3">
-        <v>1.73</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1.73</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1.6</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1.57</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1.6</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1.57</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1.75</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1.75</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1.33</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1.33</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1.52</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1.52</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1.52</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="D10" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1.0</v>
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
@@ -762,69 +725,155 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C2" s="3">
-        <v>3.03</v>
-      </c>
-      <c r="D2" s="3">
-        <v>1.77</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="7" t="s">
+      <c r="C3" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1.49</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1.1</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1.0</v>
-      </c>
       <c r="C4" s="3">
-        <v>1.41</v>
+        <v>1.0</v>
       </c>
       <c r="D4" s="3">
-        <v>1.18</v>
+        <v>1.0</v>
       </c>
       <c r="E4" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E10" s="3">
         <v>1.0</v>
       </c>
     </row>
@@ -841,31 +890,111 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="8">
-        <v>2.82</v>
-      </c>
-      <c r="C2" s="8">
-        <v>1.94</v>
-      </c>
-      <c r="D2" s="8">
-        <v>4.98</v>
+      <c r="A2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>5.0</v>
       </c>
     </row>
   </sheetData>
@@ -3138,33 +3267,162 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="34.0"/>
+    <col customWidth="1" min="2" max="2" width="15.0"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
+      <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="B2" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="C2" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D2" s="3">
-        <v>2.0</v>
+      <c r="A2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="D2" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="D3" s="7">
+        <v>10.0</v>
+      </c>
+      <c r="E3" s="7">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>10.0</v>
+      </c>
+      <c r="E4" s="7">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>10.0</v>
+      </c>
+      <c r="E5" s="7">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="D6" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="E6" s="7">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
@@ -3180,37 +3438,31 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5">
-        <v>0.23981666666666668</v>
-      </c>
-      <c r="B2" s="5">
-        <v>0.23981666666666668</v>
-      </c>
-      <c r="C2" s="5">
-        <v>0.36586416666666666</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0.29612333333333335</v>
-      </c>
-      <c r="E2" s="5">
-        <v>0.18924083333333333</v>
+      <c r="A2" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>2.0</v>
       </c>
     </row>
   </sheetData>
@@ -3224,108 +3476,39 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="26.71"/>
-  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="C2" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="D2" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E2" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F2" s="6">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="6">
-        <v>1.26</v>
-      </c>
-      <c r="C3" s="6">
-        <v>1.26</v>
-      </c>
-      <c r="D3" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E3" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F3" s="6">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="6">
-        <v>1.68</v>
-      </c>
-      <c r="C4" s="6">
-        <v>1.68</v>
-      </c>
-      <c r="D4" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E4" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F4" s="6">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="6">
-        <v>2.65</v>
-      </c>
-      <c r="C5" s="6">
-        <v>2.65</v>
-      </c>
-      <c r="D5" s="6">
-        <v>2.07</v>
-      </c>
-      <c r="E5" s="6">
-        <v>2.07</v>
-      </c>
-      <c r="F5" s="6">
-        <v>1.0</v>
+      <c r="A2" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="B2" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="C2" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="E2" s="8">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>

--- a/InputForCode_tests.xlsx
+++ b/InputForCode_tests.xlsx
@@ -255,7 +255,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -268,6 +268,10 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -423,102 +427,102 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="C2" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="D2" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E2" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F2" s="6">
+      <c r="B2" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="C2" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="D2" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="E2" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="F2" s="8">
         <v>1.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="9">
         <v>2.0</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="9">
         <v>2.0</v>
       </c>
-      <c r="D3" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E3" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F3" s="6">
+      <c r="D3" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="E3" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="F3" s="8">
         <v>1.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="9">
         <v>2.0</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="9">
         <v>2.0</v>
       </c>
-      <c r="D4" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E4" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F4" s="6">
+      <c r="D4" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="E4" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="F4" s="8">
         <v>1.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="9">
         <v>2.0</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="9">
         <v>2.0</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="9">
         <v>2.0</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="9">
         <v>2.0</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="8">
         <v>1.0</v>
       </c>
     </row>
@@ -693,10 +697,10 @@
       <c r="A1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="11" t="s">
         <v>40</v>
       </c>
     </row>
@@ -788,7 +792,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="11" t="s">
         <v>41</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -833,7 +837,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -924,7 +928,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="11" t="s">
         <v>41</v>
       </c>
       <c r="B3" s="3">
@@ -941,7 +945,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B4" s="3">
@@ -970,21 +974,21 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="11" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="10">
+      <c r="A2" s="12">
         <v>1.0</v>
       </c>
       <c r="B2" s="1">
@@ -1411,80 +1415,80 @@
       <c r="B2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D2">
-        <v>1.0</v>
-      </c>
-      <c r="E2">
-        <v>1.0</v>
-      </c>
-      <c r="F2">
-        <v>1.0</v>
-      </c>
-      <c r="G2">
-        <v>1.0</v>
+      <c r="C2" s="4">
+        <v>25.0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>25.0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>25.0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>25.0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>25.0</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="G3" s="3">
-        <v>1.0</v>
+      <c r="C3" s="4">
+        <v>25.0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>25.0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>25.0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>25.0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>25.0</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="G4" s="3">
-        <v>1.0</v>
+      <c r="C4" s="4">
+        <v>25.0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>25.0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>25.0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>25.0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>25.0</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="G5" s="3">
-        <v>1.0</v>
+      <c r="C5" s="4">
+        <v>25.0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>25.0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>25.0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>25.0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>25.0</v>
       </c>
     </row>
     <row r="6">
@@ -1494,80 +1498,80 @@
       <c r="B6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D6">
-        <v>1.0</v>
-      </c>
-      <c r="E6">
-        <v>1.0</v>
-      </c>
-      <c r="F6">
-        <v>1.0</v>
-      </c>
-      <c r="G6">
-        <v>1.0</v>
+      <c r="C6" s="4">
+        <v>25.0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>25.0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>25.0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>25.0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>25.0</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="G7" s="3">
-        <v>1.0</v>
+      <c r="C7" s="4">
+        <v>25.0</v>
+      </c>
+      <c r="D7" s="4">
+        <v>25.0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>25.0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>25.0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>25.0</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1.0</v>
+      <c r="C8" s="4">
+        <v>25.0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>25.0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>25.0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>25.0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>25.0</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1.0</v>
+      <c r="C9" s="4">
+        <v>25.0</v>
+      </c>
+      <c r="D9" s="4">
+        <v>25.0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>25.0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>25.0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>25.0</v>
       </c>
     </row>
     <row r="10">
@@ -1577,84 +1581,84 @@
       <c r="B10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D10">
-        <v>1.0</v>
-      </c>
-      <c r="E10">
-        <v>1.0</v>
-      </c>
-      <c r="F10">
-        <v>1.0</v>
-      </c>
-      <c r="G10">
-        <v>1.0</v>
+      <c r="C10" s="4">
+        <v>25.0</v>
+      </c>
+      <c r="D10" s="4">
+        <v>25.0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>25.0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>25.0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>25.0</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D11">
-        <v>1.0</v>
-      </c>
-      <c r="E11">
-        <v>1.0</v>
-      </c>
-      <c r="F11">
-        <v>1.0</v>
-      </c>
-      <c r="G11">
-        <v>1.0</v>
+      <c r="C11" s="4">
+        <v>25.0</v>
+      </c>
+      <c r="D11" s="4">
+        <v>25.0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>25.0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>25.0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>25.0</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D12" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1.0</v>
+      <c r="C12" s="4">
+        <v>25.0</v>
+      </c>
+      <c r="D12" s="4">
+        <v>25.0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>25.0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>25.0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>25.0</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D13" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E13" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="F13" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="G13" s="3">
-        <v>1.0</v>
+      <c r="C13" s="4">
+        <v>25.0</v>
+      </c>
+      <c r="D13" s="4">
+        <v>25.0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>25.0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>25.0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>25.0</v>
       </c>
     </row>
     <row r="14">
-      <c r="C14" s="3"/>
+      <c r="C14" s="5"/>
     </row>
     <row r="15">
       <c r="C15" s="3"/>
@@ -3273,155 +3277,155 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="7" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="C2" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="D2" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E2" s="6">
+      <c r="B2" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="C2" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="D2" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="E2" s="8">
         <v>1.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="C3" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="D3" s="7">
+      <c r="B3" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="D3" s="9">
         <v>10.0</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="9">
         <v>10.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="C4" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="D4" s="7">
+      <c r="B4" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="D4" s="9">
         <v>10.0</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="9">
         <v>10.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="C5" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="D5" s="7">
+      <c r="B5" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="D5" s="9">
         <v>10.0</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="9">
         <v>10.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="C6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="D6" s="7">
+      <c r="B6" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="D6" s="9">
         <v>100.0</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="9">
         <v>100.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="C7" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="D7" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E7" s="6">
+      <c r="B7" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="C7" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="D7" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="E7" s="8">
         <v>1.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="C8" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="D8" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E8" s="6">
+      <c r="B8" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="C8" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="E8" s="8">
         <v>1.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="C9" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="D9" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E9" s="6">
+      <c r="B9" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="C9" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="D9" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="E9" s="8">
         <v>1.0</v>
       </c>
     </row>
@@ -3478,36 +3482,36 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="8">
+      <c r="A2" s="10">
         <v>0.3</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="10">
         <v>0.3</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="10">
         <v>0.3</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="10">
         <v>0.3</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="10">
         <v>0.1</v>
       </c>
     </row>

--- a/InputForCode_tests.xlsx
+++ b/InputForCode_tests.xlsx
@@ -14,12 +14,14 @@
     <sheet state="visible" name="Incidence diarrhoea" sheetId="9" r:id="rId11"/>
     <sheet state="visible" name="RR diarrhoea" sheetId="10" r:id="rId12"/>
     <sheet state="visible" name="OR stunting diarrhoea" sheetId="11" r:id="rId13"/>
-    <sheet state="visible" name="birth distribution" sheetId="12" r:id="rId14"/>
-    <sheet state="visible" name="time between births" sheetId="13" r:id="rId15"/>
-    <sheet state="visible" name="birth outcome distribution" sheetId="14" r:id="rId16"/>
-    <sheet state="visible" name="RR birth by type" sheetId="15" r:id="rId17"/>
-    <sheet state="visible" name="RR birth by time" sheetId="16" r:id="rId18"/>
-    <sheet state="visible" name="OR birth outcome stunting" sheetId="17" r:id="rId19"/>
+    <sheet state="visible" name="OR stunting Zinc" sheetId="12" r:id="rId14"/>
+    <sheet state="visible" name="birth distribution" sheetId="13" r:id="rId15"/>
+    <sheet state="visible" name="time between births" sheetId="14" r:id="rId16"/>
+    <sheet state="visible" name="birth outcome distribution" sheetId="15" r:id="rId17"/>
+    <sheet state="visible" name="RR birth by type" sheetId="16" r:id="rId18"/>
+    <sheet state="visible" name="RR birth by time" sheetId="17" r:id="rId19"/>
+    <sheet state="visible" name="OR birth outcome stunting" sheetId="18" r:id="rId20"/>
+    <sheet state="visible" name="Intervention coverages" sheetId="19" r:id="rId21"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="60">
   <si>
     <t>&lt;1 month</t>
   </si>
@@ -211,6 +213,18 @@
   </si>
   <si>
     <t>Outcome</t>
+  </si>
+  <si>
+    <t>Intervention</t>
+  </si>
+  <si>
+    <t>pre-2016</t>
+  </si>
+  <si>
+    <t>Zinc supplementation</t>
+  </si>
+  <si>
+    <t>Vitamin A supplementation</t>
   </si>
 </sst>
 </file>
@@ -337,6 +351,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
+<file path=xl/drawings/worksheetdrawing18.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
+<file path=xl/drawings/worksheetdrawing19.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
 <file path=xl/drawings/worksheetdrawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
@@ -585,60 +607,37 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="3"/>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>49</v>
+      <c r="A2" s="3">
+        <v>0.9</v>
       </c>
       <c r="B2" s="3">
-        <v>0.0</v>
+        <v>0.9</v>
       </c>
       <c r="C2" s="3">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="D2" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.1</v>
+        <v>0.9</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>
@@ -655,30 +654,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3">
+      <c r="B2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C2" s="3">
         <v>0.2</v>
       </c>
-      <c r="B2" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0.0</v>
-      </c>
       <c r="D2" s="3">
-        <v>0.6</v>
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -695,24 +723,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>40</v>
+        <v>49</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
       <c r="B2" s="3">
         <v>0.0</v>
       </c>
       <c r="C2" s="3">
-        <v>0.7</v>
+        <v>0.0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -729,156 +763,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>49</v>
+      <c r="A2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.0</v>
       </c>
       <c r="C2" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="D2" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="E2" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D5" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="E5" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E6" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E7" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D8" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="E8" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D10" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1.0</v>
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
@@ -898,22 +800,188 @@
         <v>55</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
         <v>42</v>
       </c>
+      <c r="B2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="B2" s="3">
         <v>1.0</v>
       </c>
@@ -966,7 +1034,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1000,6 +1068,208 @@
       <c r="D2" s="1">
         <v>5.0</v>
       </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="33.86"/>
+    <col customWidth="1" min="2" max="2" width="15.57"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10">
+      <c r="B10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11">
+      <c r="B11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13">
+      <c r="B13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14">
+      <c r="B14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15">
+      <c r="B15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16">
+      <c r="B16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17">
+      <c r="B17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/InputForCode_tests.xlsx
+++ b/InputForCode_tests.xlsx
@@ -1099,7 +1099,7 @@
         <v>58</v>
       </c>
       <c r="B2" s="3">
-        <v>0.4</v>
+        <v>0.0</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="5"/>
@@ -1112,7 +1112,7 @@
         <v>59</v>
       </c>
       <c r="B3" s="3">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>

--- a/InputForCode_tests.xlsx
+++ b/InputForCode_tests.xlsx
@@ -21,7 +21,10 @@
     <sheet state="visible" name="RR birth by type" sheetId="16" r:id="rId18"/>
     <sheet state="visible" name="RR birth by time" sheetId="17" r:id="rId19"/>
     <sheet state="visible" name="OR birth outcome stunting" sheetId="18" r:id="rId20"/>
-    <sheet state="visible" name="Intervention coverages" sheetId="19" r:id="rId21"/>
+    <sheet state="visible" name="Interventions coverages" sheetId="19" r:id="rId21"/>
+    <sheet state="visible" name="Interventions affected fraction" sheetId="20" r:id="rId22"/>
+    <sheet state="visible" name="Interventions mortality eff" sheetId="21" r:id="rId23"/>
+    <sheet state="visible" name="Interventions incidence eff" sheetId="22" r:id="rId24"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -45,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="68">
   <si>
     <t>&lt;1 month</t>
   </si>
@@ -225,6 +228,30 @@
   </si>
   <si>
     <t>Vitamin A supplementation</t>
+  </si>
+  <si>
+    <t>Complementary feeding 1</t>
+  </si>
+  <si>
+    <t>Complementary feeding 2</t>
+  </si>
+  <si>
+    <t>Complementary feeding 3</t>
+  </si>
+  <si>
+    <t>Breastfeeding promotion</t>
+  </si>
+  <si>
+    <t>IPTp</t>
+  </si>
+  <si>
+    <t>BES</t>
+  </si>
+  <si>
+    <t>MMS</t>
+  </si>
+  <si>
+    <t>Interventions</t>
   </si>
 </sst>
 </file>
@@ -269,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -307,6 +334,12 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -360,6 +393,18 @@
 </file>
 
 <file path=xl/drawings/worksheetdrawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
+<file path=xl/drawings/worksheetdrawing20.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
+<file path=xl/drawings/worksheetdrawing21.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
+<file path=xl/drawings/worksheetdrawing22.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
@@ -1120,55 +1165,84 @@
       <c r="G3" s="3"/>
     </row>
     <row r="4">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
+      <c r="A4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.0</v>
+      </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
     <row r="5">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
+      <c r="A5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.0</v>
+      </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
     <row r="6">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
+      <c r="A6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.0</v>
+      </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
     <row r="7">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
+      <c r="A7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.0</v>
+      </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
     <row r="8">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
+      <c r="A8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.0</v>
+      </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
     <row r="9">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
+      <c r="A9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.0</v>
+      </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
     <row r="10">
-      <c r="B10" s="3"/>
+      <c r="A10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.0</v>
+      </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -1642,6 +1716,435 @@
       <c r="F18" s="2">
         <v>0.0</v>
       </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F2" s="8">
+        <v>0.253</v>
+      </c>
+      <c r="G2" s="8">
+        <v>0.253</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F3" s="8">
+        <v>0.253</v>
+      </c>
+      <c r="G3" s="8">
+        <v>0.253</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.416</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0.416</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0.416</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="D5" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.51</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="D5" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.52</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.62</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.62</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="D5" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/InputForCode_tests.xlsx
+++ b/InputForCode_tests.xlsx
@@ -11,16 +11,16 @@
     <sheet state="visible" name="RRBreastfeeding" sheetId="6" r:id="rId8"/>
     <sheet state="visible" name="RR Death by Birth Outcome" sheetId="7" r:id="rId9"/>
     <sheet state="visible" name="OR stunting progression" sheetId="8" r:id="rId10"/>
-    <sheet state="visible" name="Incidence diarrhoea" sheetId="9" r:id="rId11"/>
+    <sheet state="visible" name="Incidence of conditions" sheetId="9" r:id="rId11"/>
     <sheet state="visible" name="RR diarrhoea" sheetId="10" r:id="rId12"/>
-    <sheet state="visible" name="OR stunting diarrhoea" sheetId="11" r:id="rId13"/>
-    <sheet state="visible" name="OR stunting Zinc" sheetId="12" r:id="rId14"/>
+    <sheet state="visible" name="OR stunting by condition" sheetId="11" r:id="rId13"/>
+    <sheet state="visible" name="OR stunting by intervention" sheetId="12" r:id="rId14"/>
     <sheet state="visible" name="birth distribution" sheetId="13" r:id="rId15"/>
     <sheet state="visible" name="time between births" sheetId="14" r:id="rId16"/>
     <sheet state="visible" name="birth outcome distribution" sheetId="15" r:id="rId17"/>
     <sheet state="visible" name="RR birth by type" sheetId="16" r:id="rId18"/>
     <sheet state="visible" name="RR birth by time" sheetId="17" r:id="rId19"/>
-    <sheet state="visible" name="OR birth outcome stunting" sheetId="18" r:id="rId20"/>
+    <sheet state="visible" name="OR stunting by birth outcome" sheetId="18" r:id="rId20"/>
     <sheet state="visible" name="Interventions coverages" sheetId="19" r:id="rId21"/>
     <sheet state="visible" name="Interventions affected fraction" sheetId="20" r:id="rId22"/>
     <sheet state="visible" name="Interventions mortality eff" sheetId="21" r:id="rId23"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="69">
   <si>
     <t>&lt;1 month</t>
   </si>
@@ -182,9 +182,18 @@
     <t>Neonatal congenital anomalies</t>
   </si>
   <si>
+    <t>Condition</t>
+  </si>
+  <si>
     <t>Breastfeeding Category</t>
   </si>
   <si>
+    <t>Intervention</t>
+  </si>
+  <si>
+    <t>Zinc supplementation</t>
+  </si>
+  <si>
     <t>Type</t>
   </si>
   <si>
@@ -218,13 +227,7 @@
     <t>Outcome</t>
   </si>
   <si>
-    <t>Intervention</t>
-  </si>
-  <si>
     <t>pre-2016</t>
-  </si>
-  <si>
-    <t>Zinc supplementation</t>
   </si>
   <si>
     <t>Vitamin A supplementation</t>
@@ -495,7 +498,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>0</v>
@@ -606,25 +609,28 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>1.04</v>
+      <c r="A2" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="B2">
         <v>1.04</v>
@@ -636,6 +642,9 @@
         <v>1.04</v>
       </c>
       <c r="E2">
+        <v>1.04</v>
+      </c>
+      <c r="F2">
         <v>1.04</v>
       </c>
     </row>
@@ -652,25 +661,28 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3">
-        <v>0.9</v>
+      <c r="A2" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="B2" s="3">
         <v>0.9</v>
@@ -682,6 +694,9 @@
         <v>0.9</v>
       </c>
       <c r="E2" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="F2" s="3">
         <v>0.9</v>
       </c>
     </row>
@@ -699,22 +714,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E1" s="3"/>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B2" s="3">
         <v>0.0</v>
@@ -728,7 +743,7 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B3" s="3">
         <v>0.0</v>
@@ -742,7 +757,7 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B4" s="3">
         <v>0.0</v>
@@ -768,16 +783,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2">
@@ -842,19 +857,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2">
@@ -862,7 +877,7 @@
         <v>42</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C2" s="3">
         <v>3.0</v>
@@ -877,7 +892,7 @@
     <row r="3">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C3" s="3">
         <v>1.0</v>
@@ -892,7 +907,7 @@
     <row r="4">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C4" s="3">
         <v>1.0</v>
@@ -909,7 +924,7 @@
         <v>41</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C5" s="3">
         <v>2.0</v>
@@ -923,7 +938,7 @@
     </row>
     <row r="6">
       <c r="B6" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C6" s="3">
         <v>1.0</v>
@@ -937,7 +952,7 @@
     </row>
     <row r="7">
       <c r="B7" s="3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C7" s="3">
         <v>1.0</v>
@@ -954,7 +969,7 @@
         <v>40</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C8" s="3">
         <v>2.0</v>
@@ -968,7 +983,7 @@
     </row>
     <row r="9">
       <c r="B9" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C9" s="3">
         <v>1.0</v>
@@ -982,7 +997,7 @@
     </row>
     <row r="10">
       <c r="B10" s="3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C10" s="3">
         <v>1.0</v>
@@ -1008,19 +1023,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="D1" s="3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2">
@@ -1132,16 +1147,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C1" s="3"/>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B2" s="3">
         <v>0.0</v>
@@ -1154,7 +1169,7 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B3" s="3">
         <v>0.0</v>
@@ -1166,7 +1181,7 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B4" s="3">
         <v>0.0</v>
@@ -1178,7 +1193,7 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B5" s="3">
         <v>0.0</v>
@@ -1190,7 +1205,7 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B6" s="3">
         <v>0.0</v>
@@ -1202,7 +1217,7 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B7" s="3">
         <v>0.0</v>
@@ -1214,7 +1229,7 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B8" s="3">
         <v>0.0</v>
@@ -1226,7 +1241,7 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B9" s="3">
         <v>0.0</v>
@@ -1238,7 +1253,7 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B10" s="3">
         <v>0.0</v>
@@ -1731,7 +1746,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>5</v>
@@ -1754,7 +1769,7 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>14</v>
@@ -1798,7 +1813,7 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>14</v>
@@ -1874,7 +1889,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>5</v>
@@ -1897,7 +1912,7 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>14</v>
@@ -1941,7 +1956,7 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>14</v>
@@ -2017,7 +2032,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>5</v>
@@ -2040,7 +2055,7 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>14</v>
@@ -2084,7 +2099,7 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>14</v>
@@ -4256,24 +4271,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="10">
-        <v>0.3</v>
+      <c r="A2" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="B2" s="10">
         <v>0.3</v>
@@ -4285,7 +4303,30 @@
         <v>0.3</v>
       </c>
       <c r="E2" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="F2" s="10">
         <v>0.1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>

--- a/InputForCode_tests.xlsx
+++ b/InputForCode_tests.xlsx
@@ -22,9 +22,10 @@
     <sheet state="visible" name="RR birth by time" sheetId="17" r:id="rId19"/>
     <sheet state="visible" name="OR stunting by birth outcome" sheetId="18" r:id="rId20"/>
     <sheet state="visible" name="Interventions coverages" sheetId="19" r:id="rId21"/>
-    <sheet state="visible" name="Interventions affected fraction" sheetId="20" r:id="rId22"/>
-    <sheet state="visible" name="Interventions mortality eff" sheetId="21" r:id="rId23"/>
-    <sheet state="visible" name="Interventions incidence eff" sheetId="22" r:id="rId24"/>
+    <sheet state="visible" name="Interventions maternal" sheetId="20" r:id="rId22"/>
+    <sheet state="visible" name="Interventions affected fraction" sheetId="21" r:id="rId23"/>
+    <sheet state="visible" name="Interventions mortality eff" sheetId="22" r:id="rId24"/>
+    <sheet state="visible" name="Interventions incidence eff" sheetId="23" r:id="rId25"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="71">
   <si>
     <t>&lt;1 month</t>
   </si>
@@ -248,10 +249,16 @@
     <t>IPTp</t>
   </si>
   <si>
-    <t>BES</t>
-  </si>
-  <si>
-    <t>MMS</t>
+    <t>Balanced energy supplementation</t>
+  </si>
+  <si>
+    <t>Multiple micronutrient supplementation</t>
+  </si>
+  <si>
+    <t>effectiveness</t>
+  </si>
+  <si>
+    <t>affected fraction</t>
   </si>
   <si>
     <t>Interventions</t>
@@ -299,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -337,6 +344,7 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="4" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -408,6 +416,10 @@
 </file>
 
 <file path=xl/drawings/worksheetdrawing22.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
+<file path=xl/drawings/worksheetdrawing23.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
@@ -1240,7 +1252,7 @@
       <c r="G8" s="3"/>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="s">
+      <c r="A9" t="s">
         <v>66</v>
       </c>
       <c r="B9" s="3">
@@ -1252,7 +1264,7 @@
       <c r="G9" s="3"/>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="s">
+      <c r="A10" t="s">
         <v>67</v>
       </c>
       <c r="B10" s="3">
@@ -1746,134 +1758,134 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="F2" s="8">
-        <v>0.253</v>
-      </c>
-      <c r="G2" s="8">
-        <v>0.253</v>
+      <c r="C2" s="13">
+        <v>0.35</v>
+      </c>
+      <c r="D2" s="13">
+        <v>0.35</v>
+      </c>
+      <c r="E2" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="F2" s="13">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="F3" s="8">
-        <v>0.253</v>
-      </c>
-      <c r="G3" s="8">
-        <v>0.253</v>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="D3" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="E3" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="F3" s="13">
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0.416</v>
-      </c>
-      <c r="F4" s="9">
-        <v>0.416</v>
-      </c>
-      <c r="G4" s="9">
-        <v>0.416</v>
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="13">
+        <v>0.31</v>
+      </c>
+      <c r="D4" s="13">
+        <v>0.31</v>
+      </c>
+      <c r="E4" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="F4" s="13">
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="D5" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="E5" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="F5" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="G5" s="8">
+      <c r="B5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="13">
+        <v>0.336</v>
+      </c>
+      <c r="D5" s="13">
+        <v>0.336</v>
+      </c>
+      <c r="E5" s="13">
+        <v>0.336</v>
+      </c>
+      <c r="F5" s="13">
         <v>0.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="A6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="13">
+        <v>0.09</v>
+      </c>
+      <c r="D6" s="13">
+        <v>0.09</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="D7" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="E7" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0.0</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -1889,7 +1901,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>5</v>
@@ -1926,11 +1938,11 @@
       <c r="E2" s="3">
         <v>0.0</v>
       </c>
-      <c r="F2" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="G2" s="3">
-        <v>0.5</v>
+      <c r="F2" s="8">
+        <v>0.253</v>
+      </c>
+      <c r="G2" s="8">
+        <v>0.253</v>
       </c>
     </row>
     <row r="3">
@@ -1947,11 +1959,11 @@
       <c r="E3" s="3">
         <v>0.0</v>
       </c>
-      <c r="F3" s="3">
-        <v>0.51</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0.51</v>
+      <c r="F3" s="8">
+        <v>0.253</v>
+      </c>
+      <c r="G3" s="8">
+        <v>0.253</v>
       </c>
     </row>
     <row r="4">
@@ -1968,23 +1980,23 @@
         <v>0.0</v>
       </c>
       <c r="E4" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0.3</v>
+        <v>0.416</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0.416</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0.416</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="D5" s="14">
+      <c r="C5" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="D5" s="15">
         <v>0.0</v>
       </c>
       <c r="E5" s="8">
@@ -2032,7 +2044,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>5</v>
@@ -2070,10 +2082,10 @@
         <v>0.0</v>
       </c>
       <c r="F2" s="3">
-        <v>0.65</v>
+        <v>0.5</v>
       </c>
       <c r="G2" s="3">
-        <v>0.65</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3">
@@ -2091,10 +2103,10 @@
         <v>0.0</v>
       </c>
       <c r="F3" s="3">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="G3" s="3">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="4">
@@ -2111,6 +2123,149 @@
         <v>0.0</v>
       </c>
       <c r="E4" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="D5" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.52</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E4" s="3">
         <v>0.62</v>
       </c>
       <c r="F4" s="3">
@@ -2121,13 +2276,13 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="D5" s="14">
+      <c r="C5" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="D5" s="15">
         <v>0.0</v>
       </c>
       <c r="E5" s="8">

--- a/InputForCode_tests.xlsx
+++ b/InputForCode_tests.xlsx
@@ -15,17 +15,18 @@
     <sheet state="visible" name="RR diarrhoea" sheetId="10" r:id="rId12"/>
     <sheet state="visible" name="OR stunting by condition" sheetId="11" r:id="rId13"/>
     <sheet state="visible" name="OR stunting by intervention" sheetId="12" r:id="rId14"/>
-    <sheet state="visible" name="birth distribution" sheetId="13" r:id="rId15"/>
-    <sheet state="visible" name="time between births" sheetId="14" r:id="rId16"/>
-    <sheet state="visible" name="birth outcome distribution" sheetId="15" r:id="rId17"/>
-    <sheet state="visible" name="RR birth by type" sheetId="16" r:id="rId18"/>
-    <sheet state="visible" name="RR birth by time" sheetId="17" r:id="rId19"/>
-    <sheet state="visible" name="OR stunting by birth outcome" sheetId="18" r:id="rId20"/>
-    <sheet state="visible" name="Interventions coverages" sheetId="19" r:id="rId21"/>
-    <sheet state="visible" name="Interventions maternal" sheetId="20" r:id="rId22"/>
-    <sheet state="visible" name="Interventions affected fraction" sheetId="21" r:id="rId23"/>
-    <sheet state="visible" name="Interventions mortality eff" sheetId="22" r:id="rId24"/>
-    <sheet state="visible" name="Interventions incidence eff" sheetId="23" r:id="rId25"/>
+    <sheet state="visible" name="OR stunting for complements" sheetId="13" r:id="rId15"/>
+    <sheet state="visible" name="birth distribution" sheetId="14" r:id="rId16"/>
+    <sheet state="visible" name="time between births" sheetId="15" r:id="rId17"/>
+    <sheet state="visible" name="birth outcome distribution" sheetId="16" r:id="rId18"/>
+    <sheet state="visible" name="RR birth by type" sheetId="17" r:id="rId19"/>
+    <sheet state="visible" name="RR birth by time" sheetId="18" r:id="rId20"/>
+    <sheet state="visible" name="OR stunting by birth outcome" sheetId="19" r:id="rId21"/>
+    <sheet state="visible" name="Interventions coverages" sheetId="20" r:id="rId22"/>
+    <sheet state="visible" name="Interventions maternal" sheetId="21" r:id="rId23"/>
+    <sheet state="visible" name="Interventions affected fraction" sheetId="22" r:id="rId24"/>
+    <sheet state="visible" name="Interventions mortality eff" sheetId="23" r:id="rId25"/>
+    <sheet state="visible" name="Interventions incidence eff" sheetId="24" r:id="rId26"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="76">
   <si>
     <t>&lt;1 month</t>
   </si>
@@ -193,6 +194,21 @@
   </si>
   <si>
     <t>Zinc supplementation</t>
+  </si>
+  <si>
+    <t>Complements group</t>
+  </si>
+  <si>
+    <t>Complementary feeding (food secure with promotion)</t>
+  </si>
+  <si>
+    <t>Complementary feeding (food secure without promotion)</t>
+  </si>
+  <si>
+    <t>Complementary feeding (food insecure with promotion and supplementation)</t>
+  </si>
+  <si>
+    <t>Complementary feeding (food insecure with neither promotion nor supplementation)</t>
   </si>
   <si>
     <t>Type</t>
@@ -423,6 +439,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
+<file path=xl/drawings/worksheetdrawing24.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
 <file path=xl/drawings/worksheetdrawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
@@ -723,62 +743,108 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="70.86"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="3"/>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B2" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C2" s="3">
-        <v>0.2</v>
+        <v>1.0</v>
       </c>
       <c r="D2" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B3" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C3" s="3">
-        <v>0.4</v>
+        <v>1.0</v>
       </c>
       <c r="D3" s="3">
-        <v>0.0</v>
+        <v>1.43</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1.43</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B4" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C4" s="3">
-        <v>0.3</v>
+        <v>1.0</v>
       </c>
       <c r="D4" s="3">
-        <v>0.1</v>
+        <v>1.6</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2.39</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2.39</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
@@ -795,30 +861,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3">
+      <c r="B2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C2" s="3">
         <v>0.2</v>
       </c>
-      <c r="B2" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0.0</v>
-      </c>
       <c r="D2" s="3">
-        <v>0.6</v>
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -835,24 +930,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>40</v>
+        <v>57</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
       <c r="B2" s="3">
         <v>0.0</v>
       </c>
       <c r="C2" s="3">
-        <v>0.7</v>
+        <v>0.0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -869,156 +970,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>51</v>
+        <v>42</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>52</v>
+      <c r="A2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.0</v>
       </c>
       <c r="C2" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="D2" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="E2" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D5" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="E5" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E6" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E7" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D8" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="E8" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D10" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1.0</v>
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
@@ -1035,25 +1004,191 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
         <v>42</v>
       </c>
+      <c r="B2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="B2" s="3">
         <v>1.0</v>
       </c>
@@ -1106,7 +1241,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1146,7 +1281,379 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1162,7 +1669,7 @@
         <v>46</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C1" s="3"/>
     </row>
@@ -1181,7 +1688,7 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B3" s="3">
         <v>0.0</v>
@@ -1193,7 +1700,7 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B4" s="3">
         <v>0.0</v>
@@ -1205,7 +1712,7 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B5" s="3">
         <v>0.0</v>
@@ -1217,7 +1724,7 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B6" s="3">
         <v>0.0</v>
@@ -1229,7 +1736,7 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B7" s="3">
         <v>0.0</v>
@@ -1241,7 +1748,7 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B8" s="3">
         <v>0.0</v>
@@ -1253,7 +1760,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B9" s="3">
         <v>0.0</v>
@@ -1265,7 +1772,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B10" s="3">
         <v>0.0</v>
@@ -1377,379 +1884,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F17" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F18" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1761,7 +1896,7 @@
         <v>46</v>
       </c>
       <c r="B1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C1" t="s">
         <v>42</v>
@@ -1778,10 +1913,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C2" s="13">
         <v>0.35</v>
@@ -1798,7 +1933,7 @@
     </row>
     <row r="3">
       <c r="B3" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C3" s="13">
         <v>0.0</v>
@@ -1815,10 +1950,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C4" s="13">
         <v>0.31</v>
@@ -1835,7 +1970,7 @@
     </row>
     <row r="5">
       <c r="B5" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C5" s="13">
         <v>0.336</v>
@@ -1852,10 +1987,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C6" s="13">
         <v>0.09</v>
@@ -1872,7 +2007,7 @@
     </row>
     <row r="7">
       <c r="B7" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C7" s="13">
         <v>1.0</v>
@@ -1886,149 +2021,6 @@
       <c r="F7" s="13">
         <v>0.0</v>
       </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="F2" s="8">
-        <v>0.253</v>
-      </c>
-      <c r="G2" s="8">
-        <v>0.253</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="F3" s="8">
-        <v>0.253</v>
-      </c>
-      <c r="G3" s="8">
-        <v>0.253</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0.416</v>
-      </c>
-      <c r="F4" s="9">
-        <v>0.416</v>
-      </c>
-      <c r="G4" s="9">
-        <v>0.416</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="D5" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="E5" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="F5" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="G5" s="8">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -2044,7 +2036,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>5</v>
@@ -2081,11 +2073,11 @@
       <c r="E2" s="3">
         <v>0.0</v>
       </c>
-      <c r="F2" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="G2" s="3">
-        <v>0.5</v>
+      <c r="F2" s="8">
+        <v>0.253</v>
+      </c>
+      <c r="G2" s="8">
+        <v>0.253</v>
       </c>
     </row>
     <row r="3">
@@ -2102,16 +2094,16 @@
       <c r="E3" s="3">
         <v>0.0</v>
       </c>
-      <c r="F3" s="3">
-        <v>0.51</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0.51</v>
+      <c r="F3" s="8">
+        <v>0.253</v>
+      </c>
+      <c r="G3" s="8">
+        <v>0.253</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>14</v>
@@ -2123,13 +2115,13 @@
         <v>0.0</v>
       </c>
       <c r="E4" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0.3</v>
+        <v>0.416</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0.416</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0.416</v>
       </c>
     </row>
     <row r="5">
@@ -2187,7 +2179,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>5</v>
@@ -2225,10 +2217,10 @@
         <v>0.0</v>
       </c>
       <c r="F2" s="3">
-        <v>0.65</v>
+        <v>0.5</v>
       </c>
       <c r="G2" s="3">
-        <v>0.65</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3">
@@ -2246,6 +2238,149 @@
         <v>0.0</v>
       </c>
       <c r="F3" s="3">
+        <v>0.51</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="D5" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F3" s="3">
         <v>0.52</v>
       </c>
       <c r="G3" s="3">
@@ -2254,7 +2389,7 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>14</v>

--- a/InputForCode_tests.xlsx
+++ b/InputForCode_tests.xlsx
@@ -16,17 +16,18 @@
     <sheet state="visible" name="OR stunting by condition" sheetId="11" r:id="rId13"/>
     <sheet state="visible" name="OR stunting by intervention" sheetId="12" r:id="rId14"/>
     <sheet state="visible" name="OR stunting for complements" sheetId="13" r:id="rId15"/>
-    <sheet state="visible" name="birth distribution" sheetId="14" r:id="rId16"/>
-    <sheet state="visible" name="time between births" sheetId="15" r:id="rId17"/>
-    <sheet state="visible" name="birth outcome distribution" sheetId="16" r:id="rId18"/>
-    <sheet state="visible" name="RR birth by type" sheetId="17" r:id="rId19"/>
-    <sheet state="visible" name="RR birth by time" sheetId="18" r:id="rId20"/>
-    <sheet state="visible" name="OR stunting by birth outcome" sheetId="19" r:id="rId21"/>
-    <sheet state="visible" name="Interventions coverages" sheetId="20" r:id="rId22"/>
-    <sheet state="visible" name="Interventions maternal" sheetId="21" r:id="rId23"/>
-    <sheet state="visible" name="Interventions affected fraction" sheetId="22" r:id="rId24"/>
-    <sheet state="visible" name="Interventions mortality eff" sheetId="23" r:id="rId25"/>
-    <sheet state="visible" name="Interventions incidence eff" sheetId="24" r:id="rId26"/>
+    <sheet state="visible" name="OR exclusiveBF by intervention" sheetId="14" r:id="rId16"/>
+    <sheet state="visible" name="birth distribution" sheetId="15" r:id="rId17"/>
+    <sheet state="visible" name="time between births" sheetId="16" r:id="rId18"/>
+    <sheet state="visible" name="birth outcome distribution" sheetId="17" r:id="rId19"/>
+    <sheet state="visible" name="RR birth by type" sheetId="18" r:id="rId20"/>
+    <sheet state="visible" name="RR birth by time" sheetId="19" r:id="rId21"/>
+    <sheet state="visible" name="OR stunting by birth outcome" sheetId="20" r:id="rId22"/>
+    <sheet state="visible" name="Interventions coverages" sheetId="21" r:id="rId23"/>
+    <sheet state="visible" name="Interventions maternal" sheetId="22" r:id="rId24"/>
+    <sheet state="visible" name="Interventions affected fraction" sheetId="23" r:id="rId25"/>
+    <sheet state="visible" name="Interventions mortality eff" sheetId="24" r:id="rId26"/>
+    <sheet state="visible" name="Interventions incidence eff" sheetId="25" r:id="rId27"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="77">
   <si>
     <t>&lt;1 month</t>
   </si>
@@ -209,6 +210,9 @@
   </si>
   <si>
     <t>Complementary feeding (food insecure with neither promotion nor supplementation)</t>
+  </si>
+  <si>
+    <t>Breastfeeding promotion - Health system &amp; Home/community</t>
   </si>
   <si>
     <t>Type</t>
@@ -287,7 +291,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -301,6 +305,9 @@
     <font/>
     <font>
       <name val="Arial"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -322,7 +329,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -355,6 +362,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -443,6 +456,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
+<file path=xl/drawings/worksheetdrawing25.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
 <file path=xl/drawings/worksheetdrawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
@@ -858,63 +875,69 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="37.29"/>
+    <col customWidth="1" min="2" max="2" width="10.71"/>
+    <col customWidth="1" min="3" max="3" width="12.71"/>
+    <col customWidth="1" min="4" max="4" width="11.14"/>
+    <col customWidth="1" min="5" max="6" width="12.29"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="3"/>
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0.0</v>
+        <v>53</v>
+      </c>
+      <c r="B2" s="11">
+        <v>2.3</v>
+      </c>
+      <c r="C2" s="11">
+        <v>4.6</v>
+      </c>
+      <c r="D2" s="11">
+        <v>1.57</v>
+      </c>
+      <c r="E2" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="F2" s="12">
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0.0</v>
-      </c>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.1</v>
-      </c>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -930,30 +953,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0.6</v>
+      <c r="B4" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -970,24 +1022,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>40</v>
+        <v>58</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
       <c r="B2" s="3">
         <v>0.0</v>
       </c>
       <c r="C2" s="3">
-        <v>0.7</v>
+        <v>0.0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -1004,156 +1062,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>56</v>
+        <v>42</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>57</v>
+      <c r="A2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.0</v>
       </c>
       <c r="C2" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="D2" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="E2" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D5" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="E5" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E6" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E7" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D8" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="E8" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D10" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1.0</v>
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
@@ -1170,27 +1096,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="3">
-        <v>1.0</v>
+      <c r="B2" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="C2" s="3">
         <v>3.0</v>
@@ -1199,40 +1125,126 @@
         <v>2.0</v>
       </c>
       <c r="E2" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="11" t="s">
+      <c r="B5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="B8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E10" s="3">
         <v>1.0</v>
       </c>
     </row>
@@ -1249,31 +1261,71 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="11" t="s">
+      <c r="A1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>5.0</v>
+      <c r="B4" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
@@ -1654,6 +1706,46 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>5.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1669,7 +1761,7 @@
         <v>46</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C1" s="3"/>
     </row>
@@ -1688,7 +1780,7 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B3" s="3">
         <v>0.0</v>
@@ -1700,7 +1792,7 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B4" s="3">
         <v>0.0</v>
@@ -1712,7 +1804,7 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B5" s="3">
         <v>0.0</v>
@@ -1724,7 +1816,7 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B6" s="3">
         <v>0.0</v>
@@ -1736,7 +1828,7 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B7" s="3">
         <v>0.0</v>
@@ -1748,7 +1840,7 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B8" s="3">
         <v>0.0</v>
@@ -1760,7 +1852,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B9" s="3">
         <v>0.0</v>
@@ -1772,7 +1864,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B10" s="3">
         <v>0.0</v>
@@ -1884,7 +1976,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1896,7 +1988,7 @@
         <v>46</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C1" t="s">
         <v>42</v>
@@ -1913,257 +2005,114 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="13">
+        <v>74</v>
+      </c>
+      <c r="C2" s="15">
         <v>0.35</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="15">
         <v>0.35</v>
       </c>
-      <c r="E2" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="F2" s="13">
+      <c r="E2" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="F2" s="15">
         <v>0.0</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="D3" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="E3" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="F3" s="13">
+        <v>75</v>
+      </c>
+      <c r="C3" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="D3" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="E3" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="F3" s="15">
         <v>0.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="13">
+        <v>74</v>
+      </c>
+      <c r="C4" s="15">
         <v>0.31</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="15">
         <v>0.31</v>
       </c>
-      <c r="E4" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="F4" s="13">
+      <c r="E4" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="F4" s="15">
         <v>0.0</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" s="13">
+        <v>75</v>
+      </c>
+      <c r="C5" s="15">
         <v>0.336</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="15">
         <v>0.336</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="15">
         <v>0.336</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="15">
         <v>0.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" s="13">
+        <v>74</v>
+      </c>
+      <c r="C6" s="15">
         <v>0.09</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="15">
         <v>0.09</v>
       </c>
-      <c r="E6" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="F6" s="13">
+      <c r="E6" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="F6" s="15">
         <v>0.0</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="D7" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="E7" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="F7" s="13">
-        <v>0.0</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="F2" s="8">
-        <v>0.253</v>
-      </c>
-      <c r="G2" s="8">
-        <v>0.253</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="F3" s="8">
-        <v>0.253</v>
-      </c>
-      <c r="G3" s="8">
-        <v>0.253</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0.416</v>
-      </c>
-      <c r="F4" s="9">
-        <v>0.416</v>
-      </c>
-      <c r="G4" s="9">
-        <v>0.416</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="D5" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="E5" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="F5" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="G5" s="8">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="C7" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="D7" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="E7" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="F7" s="15">
+        <v>0.0</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -2179,7 +2128,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>5</v>
@@ -2216,11 +2165,11 @@
       <c r="E2" s="3">
         <v>0.0</v>
       </c>
-      <c r="F2" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="G2" s="3">
-        <v>0.5</v>
+      <c r="F2" s="8">
+        <v>0.253</v>
+      </c>
+      <c r="G2" s="8">
+        <v>0.253</v>
       </c>
     </row>
     <row r="3">
@@ -2237,16 +2186,16 @@
       <c r="E3" s="3">
         <v>0.0</v>
       </c>
-      <c r="F3" s="3">
-        <v>0.51</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0.51</v>
+      <c r="F3" s="8">
+        <v>0.253</v>
+      </c>
+      <c r="G3" s="8">
+        <v>0.253</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>14</v>
@@ -2258,23 +2207,23 @@
         <v>0.0</v>
       </c>
       <c r="E4" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0.3</v>
+        <v>0.416</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0.416</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0.416</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="D5" s="15">
+      <c r="C5" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="D5" s="17">
         <v>0.0</v>
       </c>
       <c r="E5" s="8">
@@ -2322,7 +2271,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>5</v>
@@ -2360,10 +2309,10 @@
         <v>0.0</v>
       </c>
       <c r="F2" s="3">
-        <v>0.65</v>
+        <v>0.5</v>
       </c>
       <c r="G2" s="3">
-        <v>0.65</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3">
@@ -2381,6 +2330,149 @@
         <v>0.0</v>
       </c>
       <c r="F3" s="3">
+        <v>0.51</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="D5" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F3" s="3">
         <v>0.52</v>
       </c>
       <c r="G3" s="3">
@@ -2389,7 +2481,7 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>14</v>
@@ -2411,13 +2503,13 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="D5" s="15">
+      <c r="C5" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="D5" s="17">
         <v>0.0</v>
       </c>
       <c r="E5" s="8">

--- a/InputForCode_tests.xlsx
+++ b/InputForCode_tests.xlsx
@@ -16,18 +16,19 @@
     <sheet state="visible" name="OR stunting by condition" sheetId="11" r:id="rId13"/>
     <sheet state="visible" name="OR stunting by intervention" sheetId="12" r:id="rId14"/>
     <sheet state="visible" name="OR stunting for complements" sheetId="13" r:id="rId15"/>
-    <sheet state="visible" name="OR exclusiveBF by intervention" sheetId="14" r:id="rId16"/>
-    <sheet state="visible" name="birth distribution" sheetId="15" r:id="rId17"/>
-    <sheet state="visible" name="time between births" sheetId="16" r:id="rId18"/>
-    <sheet state="visible" name="birth outcome distribution" sheetId="17" r:id="rId19"/>
-    <sheet state="visible" name="RR birth by type" sheetId="18" r:id="rId20"/>
-    <sheet state="visible" name="RR birth by time" sheetId="19" r:id="rId21"/>
-    <sheet state="visible" name="OR stunting by birth outcome" sheetId="20" r:id="rId22"/>
-    <sheet state="visible" name="Interventions coverages" sheetId="21" r:id="rId23"/>
-    <sheet state="visible" name="Interventions maternal" sheetId="22" r:id="rId24"/>
-    <sheet state="visible" name="Interventions affected fraction" sheetId="23" r:id="rId25"/>
-    <sheet state="visible" name="Interventions mortality eff" sheetId="24" r:id="rId26"/>
-    <sheet state="visible" name="Interventions incidence eff" sheetId="25" r:id="rId27"/>
+    <sheet state="visible" name="OR appropriateBF by interventio" sheetId="14" r:id="rId16"/>
+    <sheet state="visible" name="Appropriate breastfeeding" sheetId="15" r:id="rId17"/>
+    <sheet state="visible" name="Interventions coverages" sheetId="16" r:id="rId18"/>
+    <sheet state="visible" name="birth distribution" sheetId="17" r:id="rId19"/>
+    <sheet state="visible" name="time between births" sheetId="18" r:id="rId20"/>
+    <sheet state="visible" name="birth outcome distribution" sheetId="19" r:id="rId21"/>
+    <sheet state="visible" name="RR birth by type" sheetId="20" r:id="rId22"/>
+    <sheet state="visible" name="RR birth by time" sheetId="21" r:id="rId23"/>
+    <sheet state="visible" name="OR stunting by birth outcome" sheetId="22" r:id="rId24"/>
+    <sheet state="visible" name="Interventions maternal" sheetId="23" r:id="rId25"/>
+    <sheet state="visible" name="Interventions affected fraction" sheetId="24" r:id="rId26"/>
+    <sheet state="visible" name="Interventions mortality eff" sheetId="25" r:id="rId27"/>
+    <sheet state="visible" name="Interventions incidence eff" sheetId="26" r:id="rId28"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="76">
   <si>
     <t>&lt;1 month</t>
   </si>
@@ -215,6 +216,30 @@
     <t>Breastfeeding promotion - Health system &amp; Home/community</t>
   </si>
   <si>
+    <t>baseline coverage</t>
+  </si>
+  <si>
+    <t>saturation coverage</t>
+  </si>
+  <si>
+    <t>unit cost</t>
+  </si>
+  <si>
+    <t>Vitamin A supplementation</t>
+  </si>
+  <si>
+    <t>Complementary feeding</t>
+  </si>
+  <si>
+    <t>IPTp</t>
+  </si>
+  <si>
+    <t>Balanced energy supplementation</t>
+  </si>
+  <si>
+    <t>Multiple micronutrient supplementation</t>
+  </si>
+  <si>
     <t>Type</t>
   </si>
   <si>
@@ -246,33 +271,6 @@
   </si>
   <si>
     <t>Outcome</t>
-  </si>
-  <si>
-    <t>pre-2016</t>
-  </si>
-  <si>
-    <t>Vitamin A supplementation</t>
-  </si>
-  <si>
-    <t>Complementary feeding 1</t>
-  </si>
-  <si>
-    <t>Complementary feeding 2</t>
-  </si>
-  <si>
-    <t>Complementary feeding 3</t>
-  </si>
-  <si>
-    <t>Breastfeeding promotion</t>
-  </si>
-  <si>
-    <t>IPTp</t>
-  </si>
-  <si>
-    <t>Balanced energy supplementation</t>
-  </si>
-  <si>
-    <t>Multiple micronutrient supplementation</t>
   </si>
   <si>
     <t>effectiveness</t>
@@ -329,7 +327,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -367,6 +365,18 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -374,12 +384,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="4" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -457,6 +461,10 @@
 </file>
 
 <file path=xl/drawings/worksheetdrawing25.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
+<file path=xl/drawings/worksheetdrawing26.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
@@ -950,63 +958,57 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="5" width="13.43"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="3"/>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0.0</v>
+      <c r="A2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0.0</v>
-      </c>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.1</v>
-      </c>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -1014,738 +1016,6 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0.6</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0.7</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="D2" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="E2" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D5" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="E5" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E6" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E7" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D8" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="E8" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D10" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C2" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="D2" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F17" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F18" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1757,118 +1027,147 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" s="3"/>
+      <c r="B1" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="5"/>
+      <c r="B2" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="C2" s="16">
+        <v>0.85</v>
+      </c>
+      <c r="D2" s="16">
+        <v>60.0</v>
+      </c>
       <c r="E2" s="5"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="D3" s="5"/>
+      <c r="A3" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="16">
+        <v>0.19</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0.85</v>
+      </c>
+      <c r="D3" s="16">
+        <v>300.0</v>
+      </c>
       <c r="E3" s="5"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="D4" s="5"/>
+      <c r="A4" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="16">
+        <v>0.385</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0.85</v>
+      </c>
+      <c r="D4" s="16">
+        <v>300.0</v>
+      </c>
       <c r="E4" s="5"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="D5" s="5"/>
+      <c r="A5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="16">
+        <v>0.296</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0.85</v>
+      </c>
+      <c r="D5" s="16">
+        <v>100.0</v>
+      </c>
       <c r="E5" s="5"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="D6" s="5"/>
+      <c r="A6" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="16">
+        <v>0.257</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0.85</v>
+      </c>
+      <c r="D6" s="16">
+        <v>20.0</v>
+      </c>
       <c r="E6" s="5"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="D7" s="5"/>
+      <c r="A7" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0.85</v>
+      </c>
+      <c r="D7" s="16">
+        <v>80.0</v>
+      </c>
       <c r="E7" s="5"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="D8" s="5"/>
+      <c r="A8" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0.85</v>
+      </c>
+      <c r="D8" s="16">
+        <v>90.0</v>
+      </c>
       <c r="E8" s="5"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
     <row r="9">
-      <c r="A9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0.0</v>
-      </c>
+      <c r="B9" s="3"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
     <row r="10">
-      <c r="A10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" s="3">
-        <v>0.0</v>
-      </c>
+      <c r="B10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -1976,7 +1275,808 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>5.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1988,7 +2088,7 @@
         <v>46</v>
       </c>
       <c r="B1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C1" t="s">
         <v>42</v>
@@ -2005,257 +2105,114 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="15">
+        <v>73</v>
+      </c>
+      <c r="C2" s="19">
         <v>0.35</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="19">
         <v>0.35</v>
       </c>
-      <c r="E2" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="F2" s="15">
+      <c r="E2" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="F2" s="19">
         <v>0.0</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="D3" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="E3" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="F3" s="15">
+        <v>74</v>
+      </c>
+      <c r="C3" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="D3" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="E3" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="F3" s="19">
         <v>0.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="15">
+        <v>73</v>
+      </c>
+      <c r="C4" s="19">
         <v>0.31</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="19">
         <v>0.31</v>
       </c>
-      <c r="E4" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="F4" s="15">
+      <c r="E4" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="F4" s="19">
         <v>0.0</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" s="15">
+        <v>74</v>
+      </c>
+      <c r="C5" s="19">
         <v>0.336</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="19">
         <v>0.336</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="19">
         <v>0.336</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="19">
         <v>0.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" t="s">
         <v>73</v>
       </c>
-      <c r="B6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="15">
+      <c r="C6" s="19">
         <v>0.09</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="19">
         <v>0.09</v>
       </c>
-      <c r="E6" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="F6" s="15">
+      <c r="E6" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="F6" s="19">
         <v>0.0</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C7" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="D7" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="E7" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="F7" s="15">
-        <v>0.0</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="F2" s="8">
-        <v>0.253</v>
-      </c>
-      <c r="G2" s="8">
-        <v>0.253</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="F3" s="8">
-        <v>0.253</v>
-      </c>
-      <c r="G3" s="8">
-        <v>0.253</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0.416</v>
-      </c>
-      <c r="F4" s="9">
-        <v>0.416</v>
-      </c>
-      <c r="G4" s="9">
-        <v>0.416</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D5" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="E5" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="F5" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="G5" s="8">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+        <v>74</v>
+      </c>
+      <c r="C7" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="D7" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="E7" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="F7" s="19">
+        <v>0.0</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -2271,7 +2228,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>5</v>
@@ -2308,11 +2265,11 @@
       <c r="E2" s="3">
         <v>0.0</v>
       </c>
-      <c r="F2" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="G2" s="3">
-        <v>0.5</v>
+      <c r="F2" s="8">
+        <v>0.253</v>
+      </c>
+      <c r="G2" s="8">
+        <v>0.253</v>
       </c>
     </row>
     <row r="3">
@@ -2329,16 +2286,16 @@
       <c r="E3" s="3">
         <v>0.0</v>
       </c>
-      <c r="F3" s="3">
-        <v>0.51</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0.51</v>
+      <c r="F3" s="8">
+        <v>0.253</v>
+      </c>
+      <c r="G3" s="8">
+        <v>0.253</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>14</v>
@@ -2350,23 +2307,23 @@
         <v>0.0</v>
       </c>
       <c r="E4" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0.3</v>
+        <v>0.416</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0.416</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0.416</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D5" s="17">
+      <c r="C5" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="D5" s="16">
         <v>0.0</v>
       </c>
       <c r="E5" s="8">
@@ -2414,7 +2371,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>5</v>
@@ -2452,10 +2409,10 @@
         <v>0.0</v>
       </c>
       <c r="F2" s="3">
-        <v>0.65</v>
+        <v>0.5</v>
       </c>
       <c r="G2" s="3">
-        <v>0.65</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3">
@@ -2473,6 +2430,149 @@
         <v>0.0</v>
       </c>
       <c r="F3" s="3">
+        <v>0.51</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="D5" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F3" s="3">
         <v>0.52</v>
       </c>
       <c r="G3" s="3">
@@ -2481,7 +2581,7 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>14</v>
@@ -2503,13 +2603,13 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="D5" s="17">
+      <c r="C5" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="D5" s="16">
         <v>0.0</v>
       </c>
       <c r="E5" s="8">

--- a/InputForCode_tests.xlsx
+++ b/InputForCode_tests.xlsx
@@ -16,7 +16,7 @@
     <sheet state="visible" name="OR stunting by condition" sheetId="11" r:id="rId13"/>
     <sheet state="visible" name="OR stunting by intervention" sheetId="12" r:id="rId14"/>
     <sheet state="visible" name="OR stunting for complements" sheetId="13" r:id="rId15"/>
-    <sheet state="visible" name="OR appropriateBF by interventio" sheetId="14" r:id="rId16"/>
+    <sheet state="visible" name="OR appropriateBF by interv" sheetId="14" r:id="rId16"/>
     <sheet state="visible" name="Appropriate breastfeeding" sheetId="15" r:id="rId17"/>
     <sheet state="visible" name="Interventions coverages" sheetId="16" r:id="rId18"/>
     <sheet state="visible" name="birth distribution" sheetId="17" r:id="rId19"/>

--- a/InputForCode_tests.xlsx
+++ b/InputForCode_tests.xlsx
@@ -598,10 +598,10 @@
         <v>33</v>
       </c>
       <c r="B3" s="9">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C3" s="9">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D3" s="8">
         <v>1.0</v>
@@ -618,10 +618,10 @@
         <v>34</v>
       </c>
       <c r="B4" s="9">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C4" s="9">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D4" s="8">
         <v>1.0</v>
@@ -638,16 +638,16 @@
         <v>35</v>
       </c>
       <c r="B5" s="9">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C5" s="9">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D5" s="9">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E5" s="9">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F5" s="8">
         <v>1.0</v>

--- a/InputForCode_tests.xlsx
+++ b/InputForCode_tests.xlsx
@@ -6,29 +6,30 @@
     <sheet state="visible" name="total mortality" sheetId="1" r:id="rId3"/>
     <sheet state="visible" name="mortality" sheetId="2" r:id="rId4"/>
     <sheet state="visible" name="distributions" sheetId="3" r:id="rId5"/>
-    <sheet state="visible" name="RRStunting" sheetId="4" r:id="rId6"/>
-    <sheet state="visible" name="RRWasting" sheetId="5" r:id="rId7"/>
-    <sheet state="visible" name="RRBreastfeeding" sheetId="6" r:id="rId8"/>
-    <sheet state="visible" name="RR Death by Birth Outcome" sheetId="7" r:id="rId9"/>
-    <sheet state="visible" name="OR stunting progression" sheetId="8" r:id="rId10"/>
-    <sheet state="visible" name="Incidence of conditions" sheetId="9" r:id="rId11"/>
-    <sheet state="visible" name="RR diarrhoea" sheetId="10" r:id="rId12"/>
-    <sheet state="visible" name="OR stunting by condition" sheetId="11" r:id="rId13"/>
-    <sheet state="visible" name="OR stunting by intervention" sheetId="12" r:id="rId14"/>
-    <sheet state="visible" name="OR stunting for complements" sheetId="13" r:id="rId15"/>
-    <sheet state="visible" name="OR appropriateBF by interv" sheetId="14" r:id="rId16"/>
-    <sheet state="visible" name="Appropriate breastfeeding" sheetId="15" r:id="rId17"/>
-    <sheet state="visible" name="Interventions coverages" sheetId="16" r:id="rId18"/>
-    <sheet state="visible" name="birth distribution" sheetId="17" r:id="rId19"/>
-    <sheet state="visible" name="time between births" sheetId="18" r:id="rId20"/>
-    <sheet state="visible" name="birth outcome distribution" sheetId="19" r:id="rId21"/>
-    <sheet state="visible" name="RR birth by type" sheetId="20" r:id="rId22"/>
-    <sheet state="visible" name="RR birth by time" sheetId="21" r:id="rId23"/>
-    <sheet state="visible" name="OR stunting by birth outcome" sheetId="22" r:id="rId24"/>
-    <sheet state="visible" name="Interventions maternal" sheetId="23" r:id="rId25"/>
-    <sheet state="visible" name="Interventions affected fraction" sheetId="24" r:id="rId26"/>
-    <sheet state="visible" name="Interventions mortality eff" sheetId="25" r:id="rId27"/>
-    <sheet state="visible" name="Interventions incidence eff" sheetId="26" r:id="rId28"/>
+    <sheet state="visible" name="birth outcome distribution" sheetId="4" r:id="rId6"/>
+    <sheet state="visible" name="RRStunting" sheetId="5" r:id="rId7"/>
+    <sheet state="visible" name="RRWasting" sheetId="6" r:id="rId8"/>
+    <sheet state="visible" name="RRBreastfeeding" sheetId="7" r:id="rId9"/>
+    <sheet state="visible" name="RR Death by Birth Outcome" sheetId="8" r:id="rId10"/>
+    <sheet state="visible" name="OR stunting progression" sheetId="9" r:id="rId11"/>
+    <sheet state="visible" name="Incidence of conditions" sheetId="10" r:id="rId12"/>
+    <sheet state="visible" name="RR diarrhoea" sheetId="11" r:id="rId13"/>
+    <sheet state="visible" name="OR stunting by condition" sheetId="12" r:id="rId14"/>
+    <sheet state="visible" name="OR stunting by birth outcome" sheetId="13" r:id="rId15"/>
+    <sheet state="visible" name="OR stunting by intervention" sheetId="14" r:id="rId16"/>
+    <sheet state="visible" name="OR stunting for complements" sheetId="15" r:id="rId17"/>
+    <sheet state="visible" name="OR appropriateBF by interv" sheetId="16" r:id="rId18"/>
+    <sheet state="visible" name="Appropriate breastfeeding" sheetId="17" r:id="rId19"/>
+    <sheet state="visible" name="Interventions coverages" sheetId="18" r:id="rId20"/>
+    <sheet state="visible" name="Interventions target population" sheetId="19" r:id="rId21"/>
+    <sheet state="visible" name="Interventions maternal" sheetId="20" r:id="rId22"/>
+    <sheet state="visible" name="Interventions affected fraction" sheetId="21" r:id="rId23"/>
+    <sheet state="visible" name="Interventions mortality eff" sheetId="22" r:id="rId24"/>
+    <sheet state="visible" name="Interventions incidence eff" sheetId="23" r:id="rId25"/>
+    <sheet state="visible" name="birth distribution" sheetId="24" r:id="rId26"/>
+    <sheet state="visible" name="time between births" sheetId="25" r:id="rId27"/>
+    <sheet state="visible" name="RR birth by type" sheetId="26" r:id="rId28"/>
+    <sheet state="visible" name="RR birth by time" sheetId="27" r:id="rId29"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="78">
   <si>
     <t>&lt;1 month</t>
   </si>
@@ -162,6 +163,15 @@
     <t>none</t>
   </si>
   <si>
+    <t>Pre-term SGA</t>
+  </si>
+  <si>
+    <t>Pre-term AGA</t>
+  </si>
+  <si>
+    <t>Term SGA</t>
+  </si>
+  <si>
     <t>Stunting Status</t>
   </si>
   <si>
@@ -174,15 +184,6 @@
     <t>Term AGA</t>
   </si>
   <si>
-    <t>Term SGA</t>
-  </si>
-  <si>
-    <t>Pre-term AGA</t>
-  </si>
-  <si>
-    <t>Pre-term SGA</t>
-  </si>
-  <si>
     <t>Neonatal congenital anomalies</t>
   </si>
   <si>
@@ -240,6 +241,24 @@
     <t>Multiple micronutrient supplementation</t>
   </si>
   <si>
+    <t>pregnant women</t>
+  </si>
+  <si>
+    <t>Breastfeeding promotion (dual delivery)</t>
+  </si>
+  <si>
+    <t>Outcome</t>
+  </si>
+  <si>
+    <t>effectiveness</t>
+  </si>
+  <si>
+    <t>affected fraction</t>
+  </si>
+  <si>
+    <t>Interventions</t>
+  </si>
+  <si>
     <t>Type</t>
   </si>
   <si>
@@ -268,18 +287,6 @@
   </si>
   <si>
     <t>&lt;24 months</t>
-  </si>
-  <si>
-    <t>Outcome</t>
-  </si>
-  <si>
-    <t>effectiveness</t>
-  </si>
-  <si>
-    <t>affected fraction</t>
-  </si>
-  <si>
-    <t>Interventions</t>
   </si>
 </sst>
 </file>
@@ -327,7 +334,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -344,6 +351,9 @@
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -357,6 +367,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -377,11 +390,8 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="4" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
@@ -465,6 +475,10 @@
 </file>
 
 <file path=xl/drawings/worksheetdrawing26.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
+<file path=xl/drawings/worksheetdrawing27.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
@@ -549,108 +563,65 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="26.71"/>
-  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="7" t="s">
+      <c r="A1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="C2" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="D2" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="E2" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="F2" s="8">
-        <v>1.0</v>
+      <c r="A2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="C2" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="D2" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="E2" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="F2" s="11">
+        <v>0.1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="C3" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="D3" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="E3" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="F3" s="8">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="C4" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="D4" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="E4" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="F4" s="8">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="C5" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="D5" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="E5" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="F5" s="8">
-        <v>1.0</v>
+      <c r="A3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
@@ -664,45 +635,108 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="26.71"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2">
-        <v>1.04</v>
-      </c>
-      <c r="C2">
-        <v>1.04</v>
-      </c>
-      <c r="D2">
-        <v>1.04</v>
-      </c>
-      <c r="E2">
-        <v>1.04</v>
-      </c>
-      <c r="F2">
-        <v>1.04</v>
+      <c r="A2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="C2" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="D2" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="E2" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="F2" s="9">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="D3" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="E3" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="F3" s="9">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="C4" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="D4" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="F4" s="9">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="C5" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="D5" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="E5" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="F5" s="9">
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
@@ -718,8 +752,8 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7" t="s">
-        <v>46</v>
+      <c r="A1" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -738,23 +772,23 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0.9</v>
+      <c r="A2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>1.04</v>
+      </c>
+      <c r="C2">
+        <v>1.04</v>
+      </c>
+      <c r="D2">
+        <v>1.04</v>
+      </c>
+      <c r="E2">
+        <v>1.04</v>
+      </c>
+      <c r="F2">
+        <v>1.04</v>
       </c>
     </row>
   </sheetData>
@@ -763,6 +797,98 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>5.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -877,7 +1003,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -915,19 +1041,19 @@
       <c r="A2" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="13">
         <v>2.3</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="13">
         <v>4.6</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="13">
         <v>1.57</v>
       </c>
-      <c r="E2" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="F2" s="12">
+      <c r="E2" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="F2" s="14">
         <v>1.0</v>
       </c>
     </row>
@@ -952,7 +1078,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -992,7 +1118,7 @@
       <c r="D2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="15" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1015,7 +1141,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1027,30 +1153,30 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="C2" s="16">
+      <c r="B2" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="C2" s="18">
         <v>0.85</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="18">
         <v>60.0</v>
       </c>
       <c r="E2" s="5"/>
@@ -1058,16 +1184,16 @@
       <c r="G2" s="3"/>
     </row>
     <row r="3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="18">
         <v>0.19</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="9">
         <v>0.85</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="18">
         <v>300.0</v>
       </c>
       <c r="E3" s="5"/>
@@ -1075,16 +1201,16 @@
       <c r="G3" s="3"/>
     </row>
     <row r="4">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="18">
         <v>0.385</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="9">
         <v>0.85</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="18">
         <v>300.0</v>
       </c>
       <c r="E4" s="5"/>
@@ -1092,16 +1218,16 @@
       <c r="G4" s="3"/>
     </row>
     <row r="5">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="18">
         <v>0.296</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="9">
         <v>0.85</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="18">
         <v>100.0</v>
       </c>
       <c r="E5" s="5"/>
@@ -1109,16 +1235,16 @@
       <c r="G5" s="3"/>
     </row>
     <row r="6">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="18">
         <v>0.257</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="9">
         <v>0.85</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="18">
         <v>20.0</v>
       </c>
       <c r="E6" s="5"/>
@@ -1126,16 +1252,16 @@
       <c r="G6" s="3"/>
     </row>
     <row r="7">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="C7" s="8">
+      <c r="B7" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="C7" s="9">
         <v>0.85</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="18">
         <v>80.0</v>
       </c>
       <c r="E7" s="5"/>
@@ -1143,16 +1269,16 @@
       <c r="G7" s="3"/>
     </row>
     <row r="8">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="C8" s="8">
+      <c r="B8" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="C8" s="9">
         <v>0.85</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="18">
         <v>90.0</v>
       </c>
       <c r="E8" s="5"/>
@@ -1275,143 +1401,298 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.1</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0.6</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="37.71"/>
+    <col customWidth="1" min="2" max="6" width="13.57"/>
+    <col customWidth="1" min="7" max="7" width="17.29"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>40</v>
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0.7</v>
-      </c>
+      <c r="A2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="C2" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="D2" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="E2" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="F2" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="G2" s="19">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="D3" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="E3" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="F3" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="G3" s="19">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="C4" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="D4" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="E4" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="F4" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="G4" s="19">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="C5" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="D5" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="E5" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="F5" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="G5" s="19">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="C6" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="D6" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="E6" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="F6" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="G6" s="19">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="C7" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="D7" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="E7" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="F7" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="G7" s="19">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="C8" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="D8" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="E8" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="F8" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="G8" s="19">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10">
+      <c r="B10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11">
+      <c r="B11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13">
+      <c r="B13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14">
+      <c r="B14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15">
+      <c r="B15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -1799,156 +2080,133 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="20">
+        <v>0.35</v>
+      </c>
+      <c r="D2" s="20">
+        <v>0.35</v>
+      </c>
+      <c r="E2" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="F2" s="20">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="D2" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="E2" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>2.0</v>
+      <c r="C3" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="D3" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="E3" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="F3" s="20">
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>2.0</v>
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="20">
+        <v>0.31</v>
+      </c>
+      <c r="D4" s="20">
+        <v>0.31</v>
+      </c>
+      <c r="E4" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="F4" s="20">
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D5" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="E5" s="3">
-        <v>2.0</v>
+      <c r="C5" s="20">
+        <v>0.336</v>
+      </c>
+      <c r="D5" s="20">
+        <v>0.336</v>
+      </c>
+      <c r="E5" s="20">
+        <v>0.336</v>
+      </c>
+      <c r="F5" s="20">
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E6" s="3">
-        <v>2.0</v>
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="20">
+        <v>0.09</v>
+      </c>
+      <c r="D6" s="20">
+        <v>0.09</v>
+      </c>
+      <c r="E6" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="F6" s="20">
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E7" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="B7" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D8" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="E8" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D10" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1.0</v>
+      <c r="C7" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="D7" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="E7" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="F7" s="20">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
@@ -1965,71 +2223,134 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>71</v>
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1.0</v>
+        <v>47</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="C2" s="3">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="D2" s="3">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E2" s="3">
-        <v>1.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="F2" s="9">
+        <v>0.253</v>
+      </c>
+      <c r="G2" s="9">
+        <v>0.253</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1.0</v>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C3" s="3">
-        <v>1.5</v>
+        <v>0.0</v>
       </c>
       <c r="D3" s="3">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E3" s="3">
-        <v>1.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0.253</v>
+      </c>
+      <c r="G3" s="9">
+        <v>0.253</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1.0</v>
+      <c r="A4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="C4" s="3">
-        <v>1.5</v>
+        <v>0.0</v>
       </c>
       <c r="D4" s="3">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E4" s="3">
-        <v>1.0</v>
-      </c>
+        <v>0.416</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0.416</v>
+      </c>
+      <c r="G4" s="10">
+        <v>0.416</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="D5" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -2044,32 +2365,135 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>42</v>
+      <c r="A1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>5.0</v>
-      </c>
+      <c r="A2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.51</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="D5" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -2085,134 +2509,134 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" t="s">
-        <v>72</v>
+        <v>67</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>39</v>
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="19">
-        <v>0.35</v>
-      </c>
-      <c r="D2" s="19">
-        <v>0.35</v>
-      </c>
-      <c r="E2" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="F2" s="19">
-        <v>0.0</v>
+      <c r="A2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.65</v>
       </c>
     </row>
     <row r="3">
-      <c r="B3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="D3" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="E3" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="F3" s="19">
-        <v>0.0</v>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.52</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.52</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="19">
-        <v>0.31</v>
-      </c>
-      <c r="D4" s="19">
-        <v>0.31</v>
-      </c>
-      <c r="E4" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="F4" s="19">
-        <v>0.0</v>
+      <c r="A4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.62</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.62</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.62</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" s="19">
-        <v>0.336</v>
-      </c>
-      <c r="D5" s="19">
-        <v>0.336</v>
-      </c>
-      <c r="E5" s="19">
-        <v>0.336</v>
-      </c>
-      <c r="F5" s="19">
+      <c r="B5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="D5" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="G5" s="9">
         <v>0.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" s="19">
-        <v>0.09</v>
-      </c>
-      <c r="D6" s="19">
-        <v>0.09</v>
-      </c>
-      <c r="E6" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="F6" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
     </row>
     <row r="7">
-      <c r="B7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="D7" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="E7" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="F7" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -2228,134 +2652,60 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="3"/>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>14</v>
+        <v>72</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.0</v>
       </c>
       <c r="C2" s="3">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
       <c r="D2" s="3">
         <v>0.0</v>
       </c>
-      <c r="E2" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="F2" s="8">
-        <v>0.253</v>
-      </c>
-      <c r="G2" s="8">
-        <v>0.253</v>
-      </c>
     </row>
     <row r="3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
-        <v>15</v>
+      <c r="A3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.0</v>
       </c>
       <c r="C3" s="3">
-        <v>0.0</v>
+        <v>0.4</v>
       </c>
       <c r="D3" s="3">
         <v>0.0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="F3" s="8">
-        <v>0.253</v>
-      </c>
-      <c r="G3" s="8">
-        <v>0.253</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>74</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.0</v>
       </c>
       <c r="C4" s="3">
-        <v>0.0</v>
+        <v>0.3</v>
       </c>
       <c r="D4" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0.416</v>
-      </c>
-      <c r="F4" s="9">
-        <v>0.416</v>
-      </c>
-      <c r="G4" s="9">
-        <v>0.416</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="D5" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="E5" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="F5" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="G5" s="8">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+        <v>0.1</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -2371,134 +2721,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
+      <c r="C1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>14</v>
+      <c r="A2" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.0</v>
       </c>
       <c r="C2" s="3">
         <v>0.0</v>
       </c>
       <c r="D2" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="G2" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0.51</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="D5" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="E5" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="F5" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="G5" s="8">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+        <v>0.6</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -2514,134 +2761,237 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
+        <v>68</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="C2" s="3">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="D2" s="3">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E2" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0.65</v>
-      </c>
-      <c r="G2" s="3">
-        <v>0.65</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="C3" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D3" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E3" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0.52</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0.52</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>57</v>
-      </c>
+      <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="C4" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D4" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E4" s="3">
-        <v>0.62</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0.62</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0.62</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="D5" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="E5" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="F5" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="G5" s="8">
-        <v>0.0</v>
+      <c r="A5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="8">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="A8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="9">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1.0</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -2973,440 +3323,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
+      <c r="B1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>26</v>
+      <c r="A2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.0</v>
       </c>
       <c r="C2" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D2">
-        <v>1.0</v>
-      </c>
-      <c r="E2">
-        <v>1.0</v>
-      </c>
-      <c r="F2">
-        <v>1.0</v>
-      </c>
-      <c r="G2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="G3" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="G4" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="G5" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D6">
-        <v>1.0</v>
-      </c>
-      <c r="E6">
-        <v>1.0</v>
-      </c>
-      <c r="F6">
-        <v>1.0</v>
-      </c>
-      <c r="G6">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="G7" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D10">
-        <v>1.0</v>
-      </c>
-      <c r="E10">
-        <v>1.0</v>
-      </c>
-      <c r="F10">
-        <v>1.0</v>
-      </c>
-      <c r="G10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D11">
-        <v>1.0</v>
-      </c>
-      <c r="E11">
-        <v>1.0</v>
-      </c>
-      <c r="F11">
-        <v>1.0</v>
-      </c>
-      <c r="G11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D12" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D13" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E13" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="F13" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="G13" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D14">
-        <v>1.0</v>
-      </c>
-      <c r="E14">
-        <v>1.0</v>
-      </c>
-      <c r="F14">
-        <v>1.0</v>
-      </c>
-      <c r="G14">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D15">
-        <v>1.0</v>
-      </c>
-      <c r="E15">
-        <v>1.0</v>
-      </c>
-      <c r="F15">
-        <v>1.0</v>
-      </c>
-      <c r="G15">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D16">
-        <v>1.0</v>
-      </c>
-      <c r="E16">
-        <v>1.0</v>
-      </c>
-      <c r="F16">
-        <v>1.0</v>
-      </c>
-      <c r="G16">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D17">
-        <v>1.0</v>
-      </c>
-      <c r="E17">
-        <v>1.0</v>
-      </c>
-      <c r="F17">
-        <v>1.0</v>
-      </c>
-      <c r="G17">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D18">
-        <v>1.0</v>
-      </c>
-      <c r="E18">
-        <v>1.0</v>
-      </c>
-      <c r="F18">
-        <v>1.0</v>
-      </c>
-      <c r="G18">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D19">
-        <v>1.0</v>
-      </c>
-      <c r="E19">
-        <v>1.0</v>
-      </c>
-      <c r="F19">
-        <v>1.0</v>
-      </c>
-      <c r="G19">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D20" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E20" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="B21" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D21" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="F21" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="G21" s="3">
-        <v>1.0</v>
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
@@ -3426,7 +3360,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -3865,6 +3799,456 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D2">
+        <v>1.0</v>
+      </c>
+      <c r="E2">
+        <v>1.0</v>
+      </c>
+      <c r="F2">
+        <v>1.0</v>
+      </c>
+      <c r="G2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D6">
+        <v>1.0</v>
+      </c>
+      <c r="E6">
+        <v>1.0</v>
+      </c>
+      <c r="F6">
+        <v>1.0</v>
+      </c>
+      <c r="G6">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D10">
+        <v>1.0</v>
+      </c>
+      <c r="E10">
+        <v>1.0</v>
+      </c>
+      <c r="F10">
+        <v>1.0</v>
+      </c>
+      <c r="G10">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D11">
+        <v>1.0</v>
+      </c>
+      <c r="E11">
+        <v>1.0</v>
+      </c>
+      <c r="F11">
+        <v>1.0</v>
+      </c>
+      <c r="G11">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D14">
+        <v>1.0</v>
+      </c>
+      <c r="E14">
+        <v>1.0</v>
+      </c>
+      <c r="F14">
+        <v>1.0</v>
+      </c>
+      <c r="G14">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D15">
+        <v>1.0</v>
+      </c>
+      <c r="E15">
+        <v>1.0</v>
+      </c>
+      <c r="F15">
+        <v>1.0</v>
+      </c>
+      <c r="G15">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D16">
+        <v>1.0</v>
+      </c>
+      <c r="E16">
+        <v>1.0</v>
+      </c>
+      <c r="F16">
+        <v>1.0</v>
+      </c>
+      <c r="G16">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D17">
+        <v>1.0</v>
+      </c>
+      <c r="E17">
+        <v>1.0</v>
+      </c>
+      <c r="F17">
+        <v>1.0</v>
+      </c>
+      <c r="G17">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D18">
+        <v>1.0</v>
+      </c>
+      <c r="E18">
+        <v>1.0</v>
+      </c>
+      <c r="F18">
+        <v>1.0</v>
+      </c>
+      <c r="G18">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D19">
+        <v>1.0</v>
+      </c>
+      <c r="E19">
+        <v>1.0</v>
+      </c>
+      <c r="F19">
+        <v>1.0</v>
+      </c>
+      <c r="G19">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3879,7 +4263,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -4535,7 +4919,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4547,155 +4931,155 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>42</v>
       </c>
+      <c r="C1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="C2" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="D2" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="E2" s="8">
+      <c r="B2" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="C2" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="D2" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="E2" s="9">
         <v>1.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="C3" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="D3" s="9">
+      <c r="B3" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="D3" s="10">
         <v>10.0</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="10">
         <v>10.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="C4" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="D4" s="9">
+      <c r="B4" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="C4" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="D4" s="10">
         <v>10.0</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="10">
         <v>10.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="C5" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="D5" s="9">
+      <c r="B5" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="C5" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="D5" s="10">
         <v>10.0</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="10">
         <v>10.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="C6" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="D6" s="9">
+      <c r="B6" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="D6" s="10">
         <v>100.0</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="10">
         <v>100.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="C7" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="D7" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="E7" s="8">
+      <c r="B7" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="C7" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="D7" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="E7" s="9">
         <v>1.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="C8" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="D8" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="E8" s="8">
+      <c r="B8" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="C8" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="D8" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="E8" s="9">
         <v>1.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="C9" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="D9" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="E9" s="8">
+      <c r="B9" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="C9" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="D9" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="E9" s="9">
         <v>1.0</v>
       </c>
     </row>
@@ -4704,7 +5088,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4742,76 +5126,4 @@
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="C2" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="D2" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="E2" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="F2" s="10">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/InputForCode_tests.xlsx
+++ b/InputForCode_tests.xlsx
@@ -232,6 +232,9 @@
     <t>Complementary feeding</t>
   </si>
   <si>
+    <t>Breastfeeding promotion (dual delivery)</t>
+  </si>
+  <si>
     <t>IPTp</t>
   </si>
   <si>
@@ -242,9 +245,6 @@
   </si>
   <si>
     <t>pregnant women</t>
-  </si>
-  <si>
-    <t>Breastfeeding promotion (dual delivery)</t>
   </si>
   <si>
     <t>Outcome</t>
@@ -1218,8 +1218,8 @@
       <c r="G4" s="3"/>
     </row>
     <row r="5">
-      <c r="A5" s="16" t="s">
-        <v>53</v>
+      <c r="A5" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="B5" s="18">
         <v>0.296</v>
@@ -1236,7 +1236,7 @@
     </row>
     <row r="6">
       <c r="A6" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B6" s="18">
         <v>0.257</v>
@@ -1253,7 +1253,7 @@
     </row>
     <row r="7">
       <c r="A7" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" s="18">
         <v>0.0</v>
@@ -1270,7 +1270,7 @@
     </row>
     <row r="8">
       <c r="A8" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B8" s="18">
         <v>0.0</v>
@@ -1433,7 +1433,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2">
@@ -1507,7 +1507,7 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B5" s="19">
         <v>1.0</v>
@@ -1530,7 +1530,7 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B6" s="19">
         <v>0.0</v>
@@ -1553,7 +1553,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" s="19">
         <v>0.0</v>
@@ -1576,7 +1576,7 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B8" s="19">
         <v>0.0</v>
@@ -2100,7 +2100,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
         <v>65</v>
@@ -2137,7 +2137,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
         <v>65</v>
@@ -2174,7 +2174,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s">
         <v>65</v>

--- a/InputForCode_tests.xlsx
+++ b/InputForCode_tests.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="80">
   <si>
     <t>&lt;1 month</t>
   </si>
@@ -229,7 +229,10 @@
     <t>Vitamin A supplementation</t>
   </si>
   <si>
-    <t>Complementary feeding</t>
+    <t>Complementary feeding (education)</t>
+  </si>
+  <si>
+    <t>Complementary feeding (supplementation)</t>
   </si>
   <si>
     <t>Breastfeeding promotion (dual delivery)</t>
@@ -245,6 +248,9 @@
   </si>
   <si>
     <t>pregnant women</t>
+  </si>
+  <si>
+    <t>Food insecure fraction</t>
   </si>
   <si>
     <t>Outcome</t>
@@ -334,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="28">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -390,10 +396,31 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="4" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1149,7 +1176,8 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="33.86"/>
-    <col customWidth="1" min="2" max="2" width="15.57"/>
+    <col customWidth="1" min="2" max="2" width="19.14"/>
+    <col customWidth="1" min="3" max="3" width="19.29"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1176,8 +1204,8 @@
       <c r="C2" s="18">
         <v>0.85</v>
       </c>
-      <c r="D2" s="18">
-        <v>60.0</v>
+      <c r="D2" s="10">
+        <v>100.0</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="3"/>
@@ -1187,47 +1215,47 @@
       <c r="A3" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="18">
-        <v>0.19</v>
+      <c r="B3" s="10">
+        <v>0.2</v>
       </c>
       <c r="C3" s="9">
         <v>0.85</v>
       </c>
-      <c r="D3" s="18">
-        <v>300.0</v>
+      <c r="D3" s="10">
+        <v>100.0</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
     <row r="4">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="18">
-        <v>0.385</v>
+      <c r="B4" s="10">
+        <v>0.2</v>
       </c>
       <c r="C4" s="9">
         <v>0.85</v>
       </c>
-      <c r="D4" s="18">
-        <v>300.0</v>
+      <c r="D4" s="10">
+        <v>100.0</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="19" t="s">
         <v>59</v>
       </c>
       <c r="B5" s="18">
-        <v>0.296</v>
+        <v>0.0</v>
       </c>
       <c r="C5" s="9">
         <v>0.85</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="10">
         <v>100.0</v>
       </c>
       <c r="E5" s="5"/>
@@ -1238,14 +1266,14 @@
       <c r="A6" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="18">
-        <v>0.257</v>
+      <c r="B6" s="10">
+        <v>0.2</v>
       </c>
       <c r="C6" s="9">
         <v>0.85</v>
       </c>
-      <c r="D6" s="18">
-        <v>20.0</v>
+      <c r="D6" s="10">
+        <v>100.0</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="3"/>
@@ -1255,14 +1283,14 @@
       <c r="A7" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="18">
-        <v>0.0</v>
+      <c r="B7" s="10">
+        <v>0.2</v>
       </c>
       <c r="C7" s="9">
         <v>0.85</v>
       </c>
-      <c r="D7" s="18">
-        <v>80.0</v>
+      <c r="D7" s="10">
+        <v>100.0</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="3"/>
@@ -1278,16 +1306,26 @@
       <c r="C8" s="9">
         <v>0.85</v>
       </c>
-      <c r="D8" s="18">
-        <v>90.0</v>
+      <c r="D8" s="10">
+        <v>100.0</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
     <row r="9">
-      <c r="B9" s="3"/>
-      <c r="D9" s="5"/>
+      <c r="A9" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="C9" s="9">
+        <v>0.85</v>
+      </c>
+      <c r="D9" s="10">
+        <v>100.0</v>
+      </c>
       <c r="E9" s="5"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -1433,29 +1471,35 @@
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="21">
+        <v>0.5</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="C2" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="D2" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="E2" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="F2" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="G2" s="19">
+      <c r="B2" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="C2" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="D2" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="E2" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="F2" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="G2" s="22">
         <v>0.0</v>
       </c>
     </row>
@@ -1463,146 +1507,206 @@
       <c r="A3" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="C3" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="D3" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="E3" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="F3" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="G3" s="19">
+      <c r="B3" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="D3" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="E3" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="F3" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="G3" s="22">
         <v>0.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="C4" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="D4" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="E4" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="F4" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="G4" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="B4" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="C4" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="D4" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="E4" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="F4" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="G4" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="C5" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="D5" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="E5" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="F5" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="G5" s="19">
-        <v>0.0</v>
-      </c>
+      <c r="B5" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="C5" s="24" t="str">
+        <f t="shared" ref="C5:F5" si="1">$J$1</f>
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="C6" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="D6" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="E6" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="F6" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="G6" s="19">
-        <v>1.0</v>
+      <c r="B6" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="C6" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="D6" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="E6" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="F6" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="G6" s="22">
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="C7" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="D7" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="E7" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="F7" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="G7" s="19">
+      <c r="B7" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="C7" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="D7" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="E7" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="F7" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="G7" s="22">
         <v>1.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="s">
+      <c r="A8" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="C8" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="D8" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="E8" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="F8" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="G8" s="19">
+      <c r="B8" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="C8" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="D8" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="E8" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="F8" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="G8" s="22">
         <v>1.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="A9" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="C9" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="D9" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="E9" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="F9" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="G9" s="22">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="B10" s="3"/>
@@ -1648,7 +1752,10 @@
     </row>
     <row r="16">
       <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
     </row>
     <row r="17">
       <c r="B17" s="3"/>
@@ -1693,6 +1800,10 @@
     <row r="27">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
+    </row>
+    <row r="28">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -2083,7 +2194,7 @@
         <v>46</v>
       </c>
       <c r="B1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C1" t="s">
         <v>36</v>
@@ -2100,112 +2211,115 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="20">
+        <v>67</v>
+      </c>
+      <c r="C2" s="25">
         <v>0.35</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="25">
         <v>0.35</v>
       </c>
-      <c r="E2" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="F2" s="20">
+      <c r="E2" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="F2" s="25">
         <v>0.0</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="D3" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="E3" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="F3" s="20">
+        <v>68</v>
+      </c>
+      <c r="C3" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="D3" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="E3" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="F3" s="25">
         <v>0.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="20">
-        <v>0.31</v>
-      </c>
-      <c r="D4" s="20">
-        <v>0.31</v>
-      </c>
-      <c r="E4" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="F4" s="20">
+        <v>67</v>
+      </c>
+      <c r="C4" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="D4" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="E4" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="F4" s="25">
         <v>0.0</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="20">
-        <v>0.336</v>
-      </c>
-      <c r="D5" s="20">
-        <v>0.336</v>
-      </c>
-      <c r="E5" s="20">
-        <v>0.336</v>
-      </c>
-      <c r="F5" s="20">
+        <v>68</v>
+      </c>
+      <c r="C5" s="27" t="str">
+        <f>'Interventions target population'!$J$1</f>
+        <v>0.50</v>
+      </c>
+      <c r="D5" s="27" t="str">
+        <f>'Interventions target population'!$J$1</f>
+        <v>0.50</v>
+      </c>
+      <c r="E5" s="27" t="str">
+        <f>'Interventions target population'!$J$1</f>
+        <v>0.50</v>
+      </c>
+      <c r="F5" s="25">
         <v>0.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="20">
+        <v>67</v>
+      </c>
+      <c r="C6" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="D6" s="25">
         <v>0.09</v>
       </c>
-      <c r="D6" s="20">
-        <v>0.09</v>
-      </c>
-      <c r="E6" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="F6" s="20">
+      <c r="E6" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="F6" s="25">
         <v>0.0</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="D7" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="E7" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="F7" s="20">
+        <v>68</v>
+      </c>
+      <c r="C7" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="D7" s="25">
+        <v>1.0</v>
+      </c>
+      <c r="E7" s="25">
+        <v>1.0</v>
+      </c>
+      <c r="F7" s="25">
         <v>0.0</v>
       </c>
     </row>
@@ -2223,7 +2337,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>5</v>
@@ -2366,7 +2480,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>5</v>
@@ -2509,7 +2623,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>5</v>
@@ -2652,22 +2766,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E1" s="3"/>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B2" s="3">
         <v>0.0</v>
@@ -2681,7 +2795,7 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B3" s="3">
         <v>0.0</v>
@@ -2695,7 +2809,7 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B4" s="3">
         <v>0.0</v>
@@ -2721,16 +2835,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2">
@@ -2761,19 +2875,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2">
@@ -2781,7 +2895,7 @@
         <v>36</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C2" s="3">
         <v>3.0</v>
@@ -2796,7 +2910,7 @@
     <row r="3">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C3" s="3">
         <v>1.0</v>
@@ -2811,7 +2925,7 @@
     <row r="4">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C4" s="3">
         <v>1.0</v>
@@ -2828,7 +2942,7 @@
         <v>37</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C5" s="3">
         <v>2.0</v>
@@ -2842,7 +2956,7 @@
     </row>
     <row r="6">
       <c r="B6" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C6" s="3">
         <v>1.0</v>
@@ -2856,7 +2970,7 @@
     </row>
     <row r="7">
       <c r="B7" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C7" s="3">
         <v>1.0</v>
@@ -2873,7 +2987,7 @@
         <v>38</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C8" s="3">
         <v>2.0</v>
@@ -2887,7 +3001,7 @@
     </row>
     <row r="9">
       <c r="B9" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C9" s="3">
         <v>1.0</v>
@@ -2901,7 +3015,7 @@
     </row>
     <row r="10">
       <c r="B10" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C10" s="3">
         <v>1.0</v>
@@ -2927,19 +3041,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2">

--- a/InputForCode_tests.xlsx
+++ b/InputForCode_tests.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="90">
   <si>
     <t>indicators</t>
   </si>
@@ -81,6 +81,18 @@
     <t>number of births</t>
   </si>
   <si>
+    <t>neonatal</t>
+  </si>
+  <si>
+    <t>infant</t>
+  </si>
+  <si>
+    <t>under 5</t>
+  </si>
+  <si>
+    <t>Cause</t>
+  </si>
+  <si>
     <t>&lt;1 month</t>
   </si>
   <si>
@@ -94,9 +106,6 @@
   </si>
   <si>
     <t>24-59 months</t>
-  </si>
-  <si>
-    <t>Cause</t>
   </si>
   <si>
     <t>Neonatal diarrhea</t>
@@ -658,24 +667,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B2" s="13">
         <v>1.0</v>
@@ -692,7 +701,7 @@
     </row>
     <row r="3">
       <c r="A3" s="12" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B3" s="13">
         <v>1.0</v>
@@ -709,7 +718,7 @@
     </row>
     <row r="4">
       <c r="A4" s="12" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B4" s="13">
         <v>1.0</v>
@@ -726,7 +735,7 @@
     </row>
     <row r="5">
       <c r="A5" s="12" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B5" s="13">
         <v>1.0</v>
@@ -743,7 +752,7 @@
     </row>
     <row r="6">
       <c r="A6" s="12" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B6" s="13">
         <v>1.0</v>
@@ -760,7 +769,7 @@
     </row>
     <row r="7">
       <c r="A7" s="12" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B7" s="13">
         <v>1.0</v>
@@ -777,7 +786,7 @@
     </row>
     <row r="8">
       <c r="A8" s="12" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B8" s="13">
         <v>1.0</v>
@@ -794,7 +803,7 @@
     </row>
     <row r="9">
       <c r="A9" s="12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B9" s="13">
         <v>1.0</v>
@@ -823,16 +832,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -863,27 +872,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="12" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B2" s="15">
         <v>0.3</v>
@@ -903,7 +912,7 @@
     </row>
     <row r="3">
       <c r="A3" s="12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B3" s="2">
         <v>0.0</v>
@@ -938,27 +947,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="12" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="12" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B2" s="13">
         <v>1.0</v>
@@ -978,7 +987,7 @@
     </row>
     <row r="3">
       <c r="A3" s="12" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B3" s="14">
         <v>1.0</v>
@@ -998,7 +1007,7 @@
     </row>
     <row r="4">
       <c r="A4" s="12" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B4" s="14">
         <v>1.0</v>
@@ -1018,7 +1027,7 @@
     </row>
     <row r="5">
       <c r="A5" s="12" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B5" s="14">
         <v>1.0</v>
@@ -1050,27 +1059,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="12" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B2">
         <v>1.04</v>
@@ -1102,16 +1111,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="10" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -1142,27 +1151,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="12" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="12" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B2" s="2">
         <v>0.9</v>
@@ -1197,27 +1206,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B2" s="2">
         <v>1.0</v>
@@ -1237,7 +1246,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B3" s="2">
         <v>1.0</v>
@@ -1257,7 +1266,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B4" s="2">
         <v>1.0</v>
@@ -1277,7 +1286,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B5" s="2">
         <v>1.0</v>
@@ -1316,27 +1325,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B2" s="17">
         <v>2.3</v>
@@ -1387,36 +1396,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
@@ -1588,21 +1597,21 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="20" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="20" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B2" s="21">
         <v>0.0</v>
@@ -1619,7 +1628,7 @@
     </row>
     <row r="3">
       <c r="A3" s="20" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B3" s="14">
         <v>0.2</v>
@@ -1636,7 +1645,7 @@
     </row>
     <row r="4">
       <c r="A4" s="23" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B4" s="14">
         <v>0.2</v>
@@ -1653,7 +1662,7 @@
     </row>
     <row r="5">
       <c r="A5" s="23" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B5" s="22">
         <v>0.0</v>
@@ -1670,7 +1679,7 @@
     </row>
     <row r="6">
       <c r="A6" s="20" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B6" s="14">
         <v>0.2</v>
@@ -1687,7 +1696,7 @@
     </row>
     <row r="7">
       <c r="A7" s="20" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B7" s="14">
         <v>0.2</v>
@@ -1704,7 +1713,7 @@
     </row>
     <row r="8">
       <c r="A8" s="20" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B8" s="22">
         <v>0.0</v>
@@ -1721,7 +1730,7 @@
     </row>
     <row r="9">
       <c r="A9" s="12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B9" s="22">
         <v>0.0</v>
@@ -1859,32 +1868,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I1" s="24"/>
       <c r="J1" s="25"/>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B2" s="4">
         <v>0.0</v>
@@ -1907,7 +1916,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B3" s="4">
         <v>0.0</v>
@@ -1930,7 +1939,7 @@
     </row>
     <row r="4">
       <c r="A4" s="20" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B4" s="26">
         <v>0.0</v>
@@ -1973,7 +1982,7 @@
     </row>
     <row r="5">
       <c r="A5" s="23" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B5" s="27">
         <v>0.0</v>
@@ -2020,7 +2029,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B6" s="4">
         <v>1.0</v>
@@ -2043,7 +2052,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B7" s="4">
         <v>0.0</v>
@@ -2066,7 +2075,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B8" s="4">
         <v>0.0</v>
@@ -2089,7 +2098,7 @@
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B9" s="4">
         <v>0.0</v>
@@ -2221,30 +2230,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C2" s="28">
         <v>0.35</v>
@@ -2261,7 +2270,7 @@
     </row>
     <row r="3">
       <c r="B3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C3" s="28">
         <v>0.0</v>
@@ -2278,10 +2287,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C4" s="29">
         <v>0.4</v>
@@ -2298,7 +2307,7 @@
     </row>
     <row r="5">
       <c r="B5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C5" s="30" t="str">
         <f>demographics!$B$5</f>
@@ -2318,10 +2327,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C6" s="29">
         <v>0.1</v>
@@ -2338,7 +2347,7 @@
     </row>
     <row r="7">
       <c r="B7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C7" s="29">
         <v>0.1</v>
@@ -2367,33 +2376,33 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2">
         <v>0.0</v>
@@ -2414,7 +2423,7 @@
     <row r="3">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2">
         <v>0.0</v>
@@ -2434,10 +2443,10 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2">
         <v>0.0</v>
@@ -2457,7 +2466,7 @@
     </row>
     <row r="5">
       <c r="B5" s="20" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C5" s="22">
         <v>0.0</v>
@@ -2510,33 +2519,33 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2">
         <v>0.0</v>
@@ -2557,7 +2566,7 @@
     <row r="3">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2">
         <v>0.0</v>
@@ -2577,10 +2586,10 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2">
         <v>0.0</v>
@@ -2600,7 +2609,7 @@
     </row>
     <row r="5">
       <c r="B5" s="20" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C5" s="22">
         <v>0.0</v>
@@ -2653,33 +2662,33 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2">
         <v>0.0</v>
@@ -2700,7 +2709,7 @@
     <row r="3">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2">
         <v>0.0</v>
@@ -2720,10 +2729,10 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2">
         <v>0.0</v>
@@ -2743,7 +2752,7 @@
     </row>
     <row r="5">
       <c r="B5" s="20" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C5" s="22">
         <v>0.0</v>
@@ -2796,22 +2805,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E1" s="2"/>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B2" s="2">
         <v>0.0</v>
@@ -2825,7 +2834,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B3" s="2">
         <v>0.0</v>
@@ -2839,7 +2848,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B4" s="2">
         <v>0.0</v>
@@ -2865,16 +2874,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2">
@@ -2905,27 +2914,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C2" s="2">
         <v>3.0</v>
@@ -2940,7 +2949,7 @@
     <row r="3">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2">
         <v>1.0</v>
@@ -2955,7 +2964,7 @@
     <row r="4">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C4" s="2">
         <v>1.0</v>
@@ -2969,10 +2978,10 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C5" s="2">
         <v>2.0</v>
@@ -2986,7 +2995,7 @@
     </row>
     <row r="6">
       <c r="B6" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C6" s="2">
         <v>1.0</v>
@@ -3000,7 +3009,7 @@
     </row>
     <row r="7">
       <c r="B7" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C7" s="2">
         <v>1.0</v>
@@ -3014,10 +3023,10 @@
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C8" s="2">
         <v>2.0</v>
@@ -3031,7 +3040,7 @@
     </row>
     <row r="9">
       <c r="B9" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C9" s="2">
         <v>1.0</v>
@@ -3045,7 +3054,7 @@
     </row>
     <row r="10">
       <c r="B10" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C10" s="2">
         <v>1.0</v>
@@ -3071,24 +3080,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2">
         <v>1.0</v>
@@ -3105,7 +3114,7 @@
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B3" s="2">
         <v>1.0</v>
@@ -3122,7 +3131,7 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B4" s="2">
         <v>1.0</v>
@@ -3150,20 +3159,14 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2">
@@ -3174,12 +3177,6 @@
         <v>500.0</v>
       </c>
       <c r="C2" s="6">
-        <v>500.0</v>
-      </c>
-      <c r="D2" s="6">
-        <v>500.0</v>
-      </c>
-      <c r="E2" s="6">
         <v>500.0</v>
       </c>
     </row>
@@ -3198,27 +3195,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B2" s="7">
         <v>1.0</v>
@@ -3238,7 +3235,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B3" s="7">
         <v>0.0</v>
@@ -3258,7 +3255,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B4" s="7">
         <v>0.0</v>
@@ -3278,7 +3275,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B5" s="7">
         <v>0.0</v>
@@ -3298,7 +3295,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B6" s="7">
         <v>0.0</v>
@@ -3318,7 +3315,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B7" s="7">
         <v>0.0</v>
@@ -3338,7 +3335,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B8" s="7">
         <v>0.0</v>
@@ -3358,7 +3355,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B9" s="7">
         <v>0.0</v>
@@ -3378,7 +3375,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B10" s="7">
         <v>0.0</v>
@@ -3398,7 +3395,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B11" s="7">
         <v>0.0</v>
@@ -3418,7 +3415,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B12" s="7">
         <v>0.0</v>
@@ -3438,7 +3435,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B13" s="7">
         <v>0.0</v>
@@ -3458,7 +3455,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B14" s="7">
         <v>0.0</v>
@@ -3478,7 +3475,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B15" s="7">
         <v>0.0</v>
@@ -3498,7 +3495,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B16" s="7">
         <v>0.0</v>
@@ -3518,7 +3515,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B17" s="7">
         <v>0.0</v>
@@ -3538,7 +3535,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B18" s="7">
         <v>0.0</v>
@@ -3570,33 +3567,33 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C2" s="8">
         <v>25.0</v>
@@ -3616,7 +3613,7 @@
     </row>
     <row r="3">
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C3" s="8">
         <v>25.0</v>
@@ -3636,7 +3633,7 @@
     </row>
     <row r="4">
       <c r="B4" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C4" s="8">
         <v>25.0</v>
@@ -3656,7 +3653,7 @@
     </row>
     <row r="5">
       <c r="B5" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C5" s="8">
         <v>25.0</v>
@@ -3676,10 +3673,10 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C6" s="8">
         <v>25.0</v>
@@ -3699,7 +3696,7 @@
     </row>
     <row r="7">
       <c r="B7" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C7" s="8">
         <v>25.0</v>
@@ -3719,7 +3716,7 @@
     </row>
     <row r="8">
       <c r="B8" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C8" s="8">
         <v>25.0</v>
@@ -3739,7 +3736,7 @@
     </row>
     <row r="9">
       <c r="B9" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C9" s="8">
         <v>25.0</v>
@@ -3759,10 +3756,10 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C10" s="8">
         <v>25.0</v>
@@ -3782,7 +3779,7 @@
     </row>
     <row r="11">
       <c r="B11" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C11" s="8">
         <v>25.0</v>
@@ -3802,7 +3799,7 @@
     </row>
     <row r="12">
       <c r="B12" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C12" s="8">
         <v>25.0</v>
@@ -3822,7 +3819,7 @@
     </row>
     <row r="13">
       <c r="B13" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C13" s="8">
         <v>25.0</v>
@@ -3886,13 +3883,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -3920,33 +3917,33 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2">
         <v>1.0</v>
@@ -3966,7 +3963,7 @@
     </row>
     <row r="3">
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2">
         <v>1.0</v>
@@ -3986,7 +3983,7 @@
     </row>
     <row r="4">
       <c r="B4" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C4" s="2">
         <v>1.0</v>
@@ -4006,7 +4003,7 @@
     </row>
     <row r="5">
       <c r="B5" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C5" s="2">
         <v>1.0</v>
@@ -4026,10 +4023,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C6" s="2">
         <v>1.0</v>
@@ -4049,7 +4046,7 @@
     </row>
     <row r="7">
       <c r="B7" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C7" s="2">
         <v>1.0</v>
@@ -4069,7 +4066,7 @@
     </row>
     <row r="8">
       <c r="B8" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C8" s="2">
         <v>1.0</v>
@@ -4089,7 +4086,7 @@
     </row>
     <row r="9">
       <c r="B9" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C9" s="2">
         <v>1.0</v>
@@ -4109,10 +4106,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C10" s="2">
         <v>1.0</v>
@@ -4132,7 +4129,7 @@
     </row>
     <row r="11">
       <c r="B11" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C11" s="2">
         <v>1.0</v>
@@ -4152,7 +4149,7 @@
     </row>
     <row r="12">
       <c r="B12" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C12" s="2">
         <v>1.0</v>
@@ -4172,7 +4169,7 @@
     </row>
     <row r="13">
       <c r="B13" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C13" s="2">
         <v>1.0</v>
@@ -4192,10 +4189,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C14" s="2">
         <v>1.0</v>
@@ -4215,7 +4212,7 @@
     </row>
     <row r="15">
       <c r="B15" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C15" s="2">
         <v>1.0</v>
@@ -4235,7 +4232,7 @@
     </row>
     <row r="16">
       <c r="B16" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C16" s="2">
         <v>1.0</v>
@@ -4255,7 +4252,7 @@
     </row>
     <row r="17">
       <c r="B17" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C17" s="2">
         <v>1.0</v>
@@ -4275,10 +4272,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C18" s="2">
         <v>1.0</v>
@@ -4298,7 +4295,7 @@
     </row>
     <row r="19">
       <c r="B19" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C19" s="2">
         <v>1.0</v>
@@ -4318,7 +4315,7 @@
     </row>
     <row r="20">
       <c r="B20" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C20" s="2">
         <v>1.0</v>
@@ -4338,7 +4335,7 @@
     </row>
     <row r="21">
       <c r="B21" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C21" s="2">
         <v>1.0</v>
@@ -4370,33 +4367,33 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2">
         <v>1.0</v>
@@ -4416,7 +4413,7 @@
     </row>
     <row r="3">
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2">
         <v>1.0</v>
@@ -4436,7 +4433,7 @@
     </row>
     <row r="4">
       <c r="B4" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C4" s="2">
         <v>1.0</v>
@@ -4456,7 +4453,7 @@
     </row>
     <row r="5">
       <c r="B5" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C5" s="2">
         <v>1.0</v>
@@ -4476,10 +4473,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C6" s="2">
         <v>1.0</v>
@@ -4499,7 +4496,7 @@
     </row>
     <row r="7">
       <c r="B7" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C7" s="2">
         <v>1.0</v>
@@ -4519,7 +4516,7 @@
     </row>
     <row r="8">
       <c r="B8" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C8" s="2">
         <v>1.0</v>
@@ -4539,7 +4536,7 @@
     </row>
     <row r="9">
       <c r="B9" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C9" s="2">
         <v>1.0</v>
@@ -4559,10 +4556,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C10" s="2">
         <v>1.0</v>
@@ -4582,7 +4579,7 @@
     </row>
     <row r="11">
       <c r="B11" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C11" s="2">
         <v>1.0</v>
@@ -4602,7 +4599,7 @@
     </row>
     <row r="12">
       <c r="B12" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C12" s="2">
         <v>1.0</v>
@@ -4622,7 +4619,7 @@
     </row>
     <row r="13">
       <c r="B13" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C13" s="2">
         <v>1.0</v>
@@ -4642,10 +4639,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C14" s="2">
         <v>1.0</v>
@@ -4665,7 +4662,7 @@
     </row>
     <row r="15">
       <c r="B15" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C15" s="2">
         <v>1.0</v>
@@ -4685,7 +4682,7 @@
     </row>
     <row r="16">
       <c r="B16" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C16" s="2">
         <v>1.0</v>
@@ -4705,7 +4702,7 @@
     </row>
     <row r="17">
       <c r="B17" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C17" s="2">
         <v>1.0</v>
@@ -4725,10 +4722,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C18" s="2">
         <v>1.0</v>
@@ -4748,7 +4745,7 @@
     </row>
     <row r="19">
       <c r="B19" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C19" s="2">
         <v>1.0</v>
@@ -4768,7 +4765,7 @@
     </row>
     <row r="20">
       <c r="B20" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C20" s="2">
         <v>1.0</v>
@@ -4788,7 +4785,7 @@
     </row>
     <row r="21">
       <c r="B21" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C21" s="2">
         <v>1.0</v>
@@ -4823,33 +4820,33 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2">
         <v>1.0</v>
@@ -4869,7 +4866,7 @@
     </row>
     <row r="3">
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2">
         <v>1.0</v>
@@ -4889,7 +4886,7 @@
     </row>
     <row r="4">
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C4" s="2">
         <v>1.0</v>
@@ -4909,7 +4906,7 @@
     </row>
     <row r="5">
       <c r="B5" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C5" s="2">
         <v>1.0</v>
@@ -4929,10 +4926,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C6" s="2">
         <v>1.0</v>
@@ -4952,7 +4949,7 @@
     </row>
     <row r="7">
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C7" s="2">
         <v>1.0</v>
@@ -4972,7 +4969,7 @@
     </row>
     <row r="8">
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C8" s="2">
         <v>1.0</v>
@@ -4992,7 +4989,7 @@
     </row>
     <row r="9">
       <c r="B9" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C9" s="2">
         <v>1.0</v>
@@ -5012,10 +5009,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C10" s="2">
         <v>1.0</v>
@@ -5035,7 +5032,7 @@
     </row>
     <row r="11">
       <c r="B11" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C11" s="2">
         <v>1.0</v>
@@ -5055,7 +5052,7 @@
     </row>
     <row r="12">
       <c r="B12" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C12" s="2">
         <v>1.0</v>
@@ -5075,7 +5072,7 @@
     </row>
     <row r="13">
       <c r="B13" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C13" s="2">
         <v>1.0</v>
@@ -5095,10 +5092,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C14" s="2">
         <v>1.0</v>
@@ -5118,7 +5115,7 @@
     </row>
     <row r="15">
       <c r="B15" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C15" s="2">
         <v>1.0</v>
@@ -5138,7 +5135,7 @@
     </row>
     <row r="16">
       <c r="B16" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C16" s="2">
         <v>1.0</v>
@@ -5158,7 +5155,7 @@
     </row>
     <row r="17">
       <c r="B17" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C17" s="2">
         <v>1.0</v>
@@ -5178,10 +5175,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C18" s="2">
         <v>1.0</v>
@@ -5201,7 +5198,7 @@
     </row>
     <row r="19">
       <c r="B19" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C19" s="2">
         <v>1.0</v>
@@ -5221,7 +5218,7 @@
     </row>
     <row r="20">
       <c r="B20" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C20" s="2">
         <v>1.0</v>
@@ -5241,7 +5238,7 @@
     </row>
     <row r="21">
       <c r="B21" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C21" s="2">
         <v>1.0</v>
@@ -5261,10 +5258,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C22" s="2">
         <v>1.0</v>
@@ -5284,7 +5281,7 @@
     </row>
     <row r="23">
       <c r="B23" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C23" s="2">
         <v>1.0</v>
@@ -5304,7 +5301,7 @@
     </row>
     <row r="24">
       <c r="B24" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C24" s="2">
         <v>1.0</v>
@@ -5324,7 +5321,7 @@
     </row>
     <row r="25">
       <c r="B25" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C25" s="2">
         <v>1.0</v>
@@ -5344,10 +5341,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C26" s="2">
         <v>1.0</v>
@@ -5367,7 +5364,7 @@
     </row>
     <row r="27">
       <c r="B27" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C27" s="2">
         <v>1.0</v>
@@ -5387,7 +5384,7 @@
     </row>
     <row r="28">
       <c r="B28" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C28" s="2">
         <v>1.0</v>
@@ -5407,7 +5404,7 @@
     </row>
     <row r="29">
       <c r="B29" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C29" s="2">
         <v>1.0</v>

--- a/InputForCode_tests.xlsx
+++ b/InputForCode_tests.xlsx
@@ -379,7 +379,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -462,6 +462,12 @@
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="4" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment/>
@@ -1944,8 +1950,8 @@
       <c r="B4" s="26">
         <v>0.0</v>
       </c>
-      <c r="C4" s="26">
-        <v>1.0</v>
+      <c r="C4" s="27">
+        <v>0.0</v>
       </c>
       <c r="D4" s="26">
         <v>1.0</v>
@@ -1953,8 +1959,8 @@
       <c r="E4" s="26">
         <v>1.0</v>
       </c>
-      <c r="F4" s="26">
-        <v>1.0</v>
+      <c r="F4" s="27">
+        <v>0.0</v>
       </c>
       <c r="G4" s="26">
         <v>0.0</v>
@@ -1984,26 +1990,24 @@
       <c r="A5" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="C5" s="27" t="str">
+      <c r="B5" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="C5" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="D5" s="28" t="str">
         <f>demographics!$B$5</f>
         <v>0.5</v>
       </c>
-      <c r="D5" s="27" t="str">
+      <c r="E5" s="28" t="str">
         <f>demographics!$B$5</f>
         <v>0.5</v>
       </c>
-      <c r="E5" s="27" t="str">
-        <f>demographics!$B$5</f>
-        <v>0.5</v>
-      </c>
-      <c r="F5" s="27" t="str">
-        <f>demographics!$B$5</f>
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="27">
+      <c r="F5" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="G5" s="28">
         <v>0.0</v>
       </c>
       <c r="H5" s="12"/>
@@ -2255,16 +2259,16 @@
       <c r="B2" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="28">
+      <c r="C2" s="30">
         <v>0.35</v>
       </c>
-      <c r="D2" s="28">
+      <c r="D2" s="30">
         <v>0.35</v>
       </c>
-      <c r="E2" s="28">
-        <v>0.0</v>
-      </c>
-      <c r="F2" s="28">
+      <c r="E2" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="F2" s="30">
         <v>0.0</v>
       </c>
     </row>
@@ -2272,16 +2276,16 @@
       <c r="B3" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="28">
-        <v>0.0</v>
-      </c>
-      <c r="D3" s="28">
-        <v>0.0</v>
-      </c>
-      <c r="E3" s="28">
-        <v>0.0</v>
-      </c>
-      <c r="F3" s="28">
+      <c r="C3" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="D3" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="E3" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="F3" s="30">
         <v>0.0</v>
       </c>
     </row>
@@ -2292,16 +2296,16 @@
       <c r="B4" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="31">
         <v>0.4</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="31">
         <v>0.4</v>
       </c>
-      <c r="E4" s="28">
-        <v>0.0</v>
-      </c>
-      <c r="F4" s="28">
+      <c r="E4" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="F4" s="30">
         <v>0.0</v>
       </c>
     </row>
@@ -2309,19 +2313,19 @@
       <c r="B5" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="30" t="str">
+      <c r="C5" s="32" t="str">
         <f>demographics!$B$5</f>
         <v>0.50</v>
       </c>
-      <c r="D5" s="30" t="str">
+      <c r="D5" s="32" t="str">
         <f>demographics!$B$5</f>
         <v>0.50</v>
       </c>
-      <c r="E5" s="30" t="str">
+      <c r="E5" s="32" t="str">
         <f>demographics!$B$5</f>
         <v>0.50</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="30">
         <v>0.0</v>
       </c>
     </row>
@@ -2332,16 +2336,16 @@
       <c r="B6" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="31">
         <v>0.1</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="30">
         <v>0.09</v>
       </c>
-      <c r="E6" s="28">
-        <v>0.0</v>
-      </c>
-      <c r="F6" s="28">
+      <c r="E6" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="F6" s="30">
         <v>0.0</v>
       </c>
     </row>
@@ -2349,16 +2353,16 @@
       <c r="B7" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="31">
         <v>0.1</v>
       </c>
-      <c r="D7" s="28">
-        <v>1.0</v>
-      </c>
-      <c r="E7" s="28">
-        <v>1.0</v>
-      </c>
-      <c r="F7" s="28">
+      <c r="D7" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="E7" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="F7" s="30">
         <v>0.0</v>
       </c>
     </row>

--- a/InputForCode_tests.xlsx
+++ b/InputForCode_tests.xlsx
@@ -22,16 +22,12 @@
     <sheet state="visible" name="OR stunting for complements" sheetId="17" r:id="rId19"/>
     <sheet state="visible" name="OR appropriateBF by interv" sheetId="18" r:id="rId20"/>
     <sheet state="visible" name="Appropriate breastfeeding" sheetId="19" r:id="rId21"/>
-    <sheet state="visible" name="Interventions coverages" sheetId="20" r:id="rId22"/>
+    <sheet state="visible" name="Interventions cost and coverage" sheetId="20" r:id="rId22"/>
     <sheet state="visible" name="Interventions target population" sheetId="21" r:id="rId23"/>
     <sheet state="visible" name="Interventions maternal" sheetId="22" r:id="rId24"/>
     <sheet state="visible" name="Interventions affected fraction" sheetId="23" r:id="rId25"/>
     <sheet state="visible" name="Interventions mortality eff" sheetId="24" r:id="rId26"/>
     <sheet state="visible" name="Interventions incidence eff" sheetId="25" r:id="rId27"/>
-    <sheet state="visible" name="birth distribution" sheetId="26" r:id="rId28"/>
-    <sheet state="visible" name="time between births" sheetId="27" r:id="rId29"/>
-    <sheet state="visible" name="RR birth by type" sheetId="28" r:id="rId30"/>
-    <sheet state="visible" name="RR birth by time" sheetId="29" r:id="rId31"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -55,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="80">
   <si>
     <t>indicators</t>
   </si>
@@ -295,36 +291,6 @@
   </si>
   <si>
     <t>Interventions</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>&lt;18 years</t>
-  </si>
-  <si>
-    <t>18-34 years</t>
-  </si>
-  <si>
-    <t>35-49 years</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>second or third</t>
-  </si>
-  <si>
-    <t>greater than third</t>
-  </si>
-  <si>
-    <t>&lt;18 months</t>
-  </si>
-  <si>
-    <t>18-23 months</t>
-  </si>
-  <si>
-    <t>&lt;24 months</t>
   </si>
 </sst>
 </file>
@@ -555,22 +521,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/drawings/worksheetdrawing26.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/worksheetdrawing27.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/worksheetdrawing28.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/worksheetdrawing29.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
 <file path=xl/drawings/worksheetdrawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
@@ -2800,361 +2750,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.1</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.6</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="D8" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
